--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2825808.450305016</v>
+        <v>2941347.041247352</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12458824.03133925</v>
+        <v>12463925.44488782</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8612462.750635885</v>
+        <v>8611468.456689451</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>153.8072380324131</v>
       </c>
       <c r="F2" t="n">
-        <v>57.08569488870503</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368137</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -750,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550658</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714239</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -798,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>64.53075554884343</v>
+        <v>42.1780435948578</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35.91914431928517</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845815</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>8.916409259873294</v>
       </c>
       <c r="W4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>203.7042720759966</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>349.2299344537558</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>349.2299344537558</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>349.2299344537558</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>103.8974541908713</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>85.0654338270657</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>88.75328352215101</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8643785804277</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.95007950277716</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>38.47015094419594</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>144.2088206736375</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.2027622142185</v>
+        <v>183.652323451407</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1057,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>109.4055339987731</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.7509192581389</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
-        <v>151.2019108882319</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>118.1584857285477</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>5.686931024057188</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
-        <v>222.6471508178238</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>78.00626620120218</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>47.08580250776618</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>411.8302881234605</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>303.9125797832801</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>76.60428439787239</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>207.895202352076</v>
       </c>
       <c r="U8" t="n">
-        <v>95.51546019344639</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>94.29180769719211</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>25.42862793155169</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>120.7956838588536</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8191502244401</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>147.9970573295249</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>108.608555768565</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>107.2570757305865</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>196.8715076418045</v>
       </c>
       <c r="T10" t="n">
-        <v>190.7185231375345</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2340681971946</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695527</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>117.8112368377021</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1765,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>20.43112068613158</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,13 +1821,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>206.5512581543057</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>100.1987639469987</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>31.66396365647122</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>55.83068150864332</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2287,25 +2289,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>143.2091541404069</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="24">
@@ -2479,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>80.08971311158712</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2606,13 +2608,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2716,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>9.146142788179368</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>112.7304175246775</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2956,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>18.70843787977265</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>126.4418041083153</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3196,7 +3198,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>29.959001240238</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>166.098615248962</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3320,10 +3322,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>148.8744394430824</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444131</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>126.8024622972509</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>103.1686991936193</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>63.84155641259233</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>132.6315337216687</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3949,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444129</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>146.9393756113372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4147,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>53.76947475493767</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>578.2426392372646</v>
+        <v>549.202463503662</v>
       </c>
       <c r="C2" t="n">
-        <v>578.2426392372646</v>
+        <v>549.202463503662</v>
       </c>
       <c r="D2" t="n">
-        <v>578.2426392372646</v>
+        <v>549.202463503662</v>
       </c>
       <c r="E2" t="n">
-        <v>578.2426392372646</v>
+        <v>393.841617006275</v>
       </c>
       <c r="F2" t="n">
-        <v>520.5803211678656</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G2" t="n">
-        <v>331.1605361513809</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
         <v>15.00204697330559</v>
@@ -4331,49 +4333,49 @@
         <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058933</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079182</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
         <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020262</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201465</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="S2" t="n">
-        <v>578.2426392372646</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="T2" t="n">
-        <v>578.2426392372646</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="U2" t="n">
-        <v>578.2426392372646</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="V2" t="n">
-        <v>578.2426392372646</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="W2" t="n">
-        <v>578.2426392372646</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="X2" t="n">
-        <v>578.2426392372646</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="Y2" t="n">
-        <v>578.2426392372646</v>
+        <v>549.202463503662</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>489.5213739017912</v>
+        <v>301.4756378121077</v>
       </c>
       <c r="C3" t="n">
-        <v>315.0683446206642</v>
+        <v>301.4756378121077</v>
       </c>
       <c r="D3" t="n">
-        <v>166.133934959413</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="E3" t="n">
-        <v>166.133934959413</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="F3" t="n">
-        <v>166.133934959413</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G3" t="n">
-        <v>166.133934959413</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
         <v>15.00204697330559</v>
@@ -4413,46 +4415,46 @@
         <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772648</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140241</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476345</v>
+        <v>649.2101578476346</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017058</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843273</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843273</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843273</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="U3" t="n">
-        <v>722.9192922843273</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="V3" t="n">
-        <v>722.9192922843273</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="W3" t="n">
-        <v>657.7367109218592</v>
+        <v>680.3152078450772</v>
       </c>
       <c r="X3" t="n">
-        <v>657.7367109218592</v>
+        <v>490.8954228285925</v>
       </c>
       <c r="Y3" t="n">
-        <v>657.7367109218592</v>
+        <v>301.4756378121077</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>331.6039639927837</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="C4" t="n">
-        <v>331.6039639927837</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="D4" t="n">
-        <v>331.6039639927837</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="E4" t="n">
-        <v>183.6908704103906</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="F4" t="n">
-        <v>183.6908704103906</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="J4" t="n">
         <v>15.00204697330559</v>
@@ -4492,46 +4494,46 @@
         <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884406</v>
+        <v>100.3335179349382</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830972</v>
+        <v>285.9838492295949</v>
       </c>
       <c r="N4" t="n">
-        <v>559.1902876777538</v>
+        <v>471.6341805242515</v>
       </c>
       <c r="O4" t="n">
-        <v>721.9284911143038</v>
+        <v>634.3723839608017</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846269</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846269</v>
+        <v>615.9383389575114</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846269</v>
+        <v>615.9383389575114</v>
       </c>
       <c r="T4" t="n">
-        <v>746.7254979846269</v>
+        <v>615.9383389575114</v>
       </c>
       <c r="U4" t="n">
-        <v>557.3057129681423</v>
+        <v>426.5185539410267</v>
       </c>
       <c r="V4" t="n">
-        <v>557.3057129681423</v>
+        <v>417.5120799411546</v>
       </c>
       <c r="W4" t="n">
-        <v>367.8859279516577</v>
+        <v>228.0922949246699</v>
       </c>
       <c r="X4" t="n">
-        <v>367.8859279516577</v>
+        <v>228.0922949246699</v>
       </c>
       <c r="Y4" t="n">
-        <v>367.8859279516577</v>
+        <v>38.67250990818523</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1191.157846829168</v>
+        <v>861.1673771602915</v>
       </c>
       <c r="C5" t="n">
-        <v>1191.157846829168</v>
+        <v>861.1673771602915</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.157846829168</v>
+        <v>861.1673771602915</v>
       </c>
       <c r="E5" t="n">
-        <v>838.4003372799198</v>
+        <v>861.1673771602915</v>
       </c>
       <c r="F5" t="n">
-        <v>485.6428277306713</v>
+        <v>450.1814723706839</v>
       </c>
       <c r="G5" t="n">
-        <v>132.885318181423</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H5" t="n">
-        <v>132.885318181423</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I5" t="n">
-        <v>27.93839475630047</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="J5" t="n">
-        <v>80.99020340874631</v>
+        <v>107.8290791267618</v>
       </c>
       <c r="K5" t="n">
-        <v>211.2396305620539</v>
+        <v>269.6240911917569</v>
       </c>
       <c r="L5" t="n">
-        <v>409.7273242458673</v>
+        <v>507.2468724099484</v>
       </c>
       <c r="M5" t="n">
-        <v>662.252565397384</v>
+        <v>803.3174389675509</v>
       </c>
       <c r="N5" t="n">
-        <v>923.4777373365765</v>
+        <v>1108.792545203136</v>
       </c>
       <c r="O5" t="n">
-        <v>1156.809998477535</v>
+        <v>1383.90876451977</v>
       </c>
       <c r="P5" t="n">
-        <v>1321.452684169736</v>
+        <v>1584.213091808873</v>
       </c>
       <c r="Q5" t="n">
-        <v>1396.919737815023</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R5" t="n">
-        <v>1396.919737815023</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S5" t="n">
-        <v>1396.919737815023</v>
+        <v>1600.535872494527</v>
       </c>
       <c r="T5" t="n">
-        <v>1396.919737815023</v>
+        <v>1600.535872494527</v>
       </c>
       <c r="U5" t="n">
-        <v>1396.919737815023</v>
+        <v>1600.535872494527</v>
       </c>
       <c r="V5" t="n">
-        <v>1396.919737815023</v>
+        <v>1600.535872494527</v>
       </c>
       <c r="W5" t="n">
-        <v>1396.919737815023</v>
+        <v>1247.767217224413</v>
       </c>
       <c r="X5" t="n">
-        <v>1396.919737815023</v>
+        <v>1247.767217224413</v>
       </c>
       <c r="Y5" t="n">
-        <v>1396.919737815023</v>
+        <v>1247.767217224413</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>847.3295573451646</v>
+        <v>662.8886629835073</v>
       </c>
       <c r="C6" t="n">
-        <v>757.6797760096586</v>
+        <v>488.4356337023803</v>
       </c>
       <c r="D6" t="n">
-        <v>608.7453663484073</v>
+        <v>339.501224041129</v>
       </c>
       <c r="E6" t="n">
-        <v>449.5079113429517</v>
+        <v>180.2637690356736</v>
       </c>
       <c r="F6" t="n">
-        <v>302.9733533698367</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="G6" t="n">
-        <v>165.7366073290006</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H6" t="n">
-        <v>66.79713308377112</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I6" t="n">
-        <v>27.93839475630047</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="J6" t="n">
-        <v>40.71784159143083</v>
+        <v>121.7846078506384</v>
       </c>
       <c r="K6" t="n">
-        <v>140.7147764379372</v>
+        <v>243.2077001209172</v>
       </c>
       <c r="L6" t="n">
-        <v>321.4955368824496</v>
+        <v>452.7985733737478</v>
       </c>
       <c r="M6" t="n">
-        <v>551.8150256158615</v>
+        <v>716.7381048692351</v>
       </c>
       <c r="N6" t="n">
-        <v>802.6390307947661</v>
+        <v>1002.071975302568</v>
       </c>
       <c r="O6" t="n">
-        <v>1009.87419788785</v>
+        <v>1240.876927054026</v>
       </c>
       <c r="P6" t="n">
-        <v>1156.865623411834</v>
+        <v>1413.205888007736</v>
       </c>
       <c r="Q6" t="n">
-        <v>1396.919737815023</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R6" t="n">
-        <v>1396.919737815023</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S6" t="n">
-        <v>1251.254262387107</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T6" t="n">
-        <v>1055.089856110118</v>
+        <v>1500.953155702264</v>
       </c>
       <c r="U6" t="n">
-        <v>1055.089856110118</v>
+        <v>1500.953155702264</v>
       </c>
       <c r="V6" t="n">
-        <v>1055.089856110118</v>
+        <v>1500.953155702264</v>
       </c>
       <c r="W6" t="n">
-        <v>1055.089856110118</v>
+        <v>1246.715798974062</v>
       </c>
       <c r="X6" t="n">
-        <v>1055.089856110118</v>
+        <v>1038.864298768529</v>
       </c>
       <c r="Y6" t="n">
-        <v>847.3295573451646</v>
+        <v>831.1040000035753</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>624.315889622147</v>
+        <v>459.4515713701462</v>
       </c>
       <c r="C7" t="n">
-        <v>624.315889622147</v>
+        <v>459.4515713701462</v>
       </c>
       <c r="D7" t="n">
-        <v>474.1992502098112</v>
+        <v>459.4515713701462</v>
       </c>
       <c r="E7" t="n">
-        <v>474.1992502098112</v>
+        <v>348.940930967345</v>
       </c>
       <c r="F7" t="n">
-        <v>474.1992502098112</v>
+        <v>202.0509834694346</v>
       </c>
       <c r="G7" t="n">
-        <v>305.7639782318932</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H7" t="n">
-        <v>153.0347753144872</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I7" t="n">
-        <v>33.6827695280754</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="J7" t="n">
-        <v>27.93839475630047</v>
+        <v>35.96388306992288</v>
       </c>
       <c r="K7" t="n">
-        <v>148.5233105874692</v>
+        <v>169.472972355726</v>
       </c>
       <c r="L7" t="n">
-        <v>358.3569215208641</v>
+        <v>395.84507567387</v>
       </c>
       <c r="M7" t="n">
-        <v>589.9861665014278</v>
+        <v>644.9118420064103</v>
       </c>
       <c r="N7" t="n">
-        <v>821.5424021750252</v>
+        <v>893.4909737490111</v>
       </c>
       <c r="O7" t="n">
-        <v>1019.405768767886</v>
+        <v>1107.077740097166</v>
       </c>
       <c r="P7" t="n">
-        <v>1165.191378612032</v>
+        <v>1266.31743473321</v>
       </c>
       <c r="Q7" t="n">
-        <v>1182.690698049272</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="R7" t="n">
-        <v>1182.690698049272</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="S7" t="n">
-        <v>1182.690698049272</v>
+        <v>972.9993576026061</v>
       </c>
       <c r="T7" t="n">
-        <v>957.7945861120764</v>
+        <v>748.5881983780441</v>
       </c>
       <c r="U7" t="n">
-        <v>957.7945861120764</v>
+        <v>459.4515713701462</v>
       </c>
       <c r="V7" t="n">
-        <v>703.1100979061896</v>
+        <v>459.4515713701462</v>
       </c>
       <c r="W7" t="n">
-        <v>703.1100979061896</v>
+        <v>459.4515713701462</v>
       </c>
       <c r="X7" t="n">
-        <v>624.315889622147</v>
+        <v>459.4515713701462</v>
       </c>
       <c r="Y7" t="n">
-        <v>624.315889622147</v>
+        <v>459.4515713701462</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1926.050536840746</v>
+        <v>1303.253526885286</v>
       </c>
       <c r="C8" t="n">
-        <v>1926.050536840746</v>
+        <v>1303.253526885286</v>
       </c>
       <c r="D8" t="n">
-        <v>1567.784838233996</v>
+        <v>1255.692110210774</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.996585635751</v>
+        <v>1255.692110210774</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>844.7062054211669</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>428.7160153974694</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>121.7336115759744</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>44.35554652761844</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>156.8927045872715</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>376.2952505159013</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>685.3852714985301</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1060.976912556947</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1447.259827415493</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>1798.680568975115</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2064.109040631094</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2215.262022208134</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2217.777326380922</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2217.777326380922</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2007.782172489936</v>
       </c>
       <c r="U8" t="n">
-        <v>2257.113424184317</v>
+        <v>2007.782172489936</v>
       </c>
       <c r="V8" t="n">
-        <v>1926.050536840746</v>
+        <v>1676.719285146366</v>
       </c>
       <c r="W8" t="n">
-        <v>1926.050536840746</v>
+        <v>1676.719285146366</v>
       </c>
       <c r="X8" t="n">
-        <v>1926.050536840746</v>
+        <v>1303.253526885286</v>
       </c>
       <c r="Y8" t="n">
-        <v>1926.050536840746</v>
+        <v>1303.253526885286</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>794.4447314068942</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>619.9917021257672</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>471.057292464516</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>311.8198374590605</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>165.2852794859455</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.2852794859455</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>70.04102928676156</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>44.35554652761844</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>92.56405995424129</v>
       </c>
       <c r="K9" t="n">
-        <v>319.2880102945313</v>
+        <v>253.1149126643092</v>
       </c>
       <c r="L9" t="n">
-        <v>613.9915673260031</v>
+        <v>680.3790158178089</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105042</v>
+        <v>1005.714389467915</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1354.06906730867</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>1902.968955587948</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2121.568509855278</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2217.777326380922</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2217.777326380922</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2217.777326380922</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2095.761484099252</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>1867.661332357393</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1632.50922412565</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1378.271867397449</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1170.420367191916</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>962.6600684269622</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>452.7307788730139</v>
+        <v>472.489318443495</v>
       </c>
       <c r="C10" t="n">
-        <v>452.7307788730139</v>
+        <v>303.5531355155881</v>
       </c>
       <c r="D10" t="n">
-        <v>452.7307788730139</v>
+        <v>154.0611584150579</v>
       </c>
       <c r="E10" t="n">
-        <v>452.7307788730139</v>
+        <v>154.0611584150579</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>154.0611584150579</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>154.0611584150579</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>154.0611584150579</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>44.35554652761844</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>60.95254262692063</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>218.0633423274037</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>474.6375091918447</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>755.5481168921726</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1035.21391462932</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1277.514248546133</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1461.323360659242</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1505.148182155971</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1396.807701620025</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1197.947592890929</v>
       </c>
       <c r="T10" t="n">
-        <v>1144.588992883744</v>
+        <v>1197.947592890929</v>
       </c>
       <c r="U10" t="n">
-        <v>1144.588992883744</v>
+        <v>908.8222714796216</v>
       </c>
       <c r="V10" t="n">
-        <v>1144.588992883744</v>
+        <v>654.1377832737347</v>
       </c>
       <c r="W10" t="n">
-        <v>855.1718228467838</v>
+        <v>654.1377832737347</v>
       </c>
       <c r="X10" t="n">
-        <v>855.1718228467838</v>
+        <v>654.1377832737347</v>
       </c>
       <c r="Y10" t="n">
-        <v>634.3792437032537</v>
+        <v>654.1377832737347</v>
       </c>
     </row>
     <row r="11">
@@ -5021,16 +5023,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5039,19 +5041,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5078,7 +5080,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591808</v>
@@ -5127,7 +5129,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
         <v>1896.176478190825</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>584.5295404712656</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>436.6164468888725</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>436.6164468888725</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5270,25 +5272,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,28 +5299,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277355</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1835.869149758807</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="17">
@@ -5495,55 +5497,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5592,19 +5594,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190825</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1051.964939354869</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C19" t="n">
-        <v>883.0287564269624</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D19" t="n">
-        <v>732.9121170146267</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>267.5122958789771</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.747069396417</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.757518498399</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.964939354869</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5743,7 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5765,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5832,16 +5834,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
         <v>1896.176478190825</v>
@@ -5884,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>986.1256051221279</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
         <v>929.7309773356195</v>
@@ -5935,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W22" t="n">
-        <v>1616.556199993915</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X22" t="n">
-        <v>1388.566649095898</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y22" t="n">
-        <v>1167.774069952368</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
@@ -5990,16 +5992,16 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,16 +6010,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466572</v>
@@ -6032,7 +6034,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6072,19 +6074,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1802.364528928006</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>2354.274259167293</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6190,7 +6192,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6217,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M27" t="n">
-        <v>842.6091804069456</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>1470.207143961552</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2022.116874200839</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,16 +6484,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6534,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998286</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>175.9033664000582</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6646,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2252.19838578386</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1963.123159128057</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1708.43867092217</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6691,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6701,16 +6703,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6789,16 +6791,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2876.594459243706</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>2876.594459243706</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D34" t="n">
-        <v>2876.594459243706</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E34" t="n">
-        <v>2728.681365661313</v>
+        <v>432.9862109052757</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053498</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>4340.201939014142</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>4051.12671235834</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>3796.442224152453</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>3507.025054115493</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>3279.035503217476</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>3058.242924073946</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7017,25 +7019,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2229.539158172984</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2009.937693195925</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1720.862466540123</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1466.177978334236</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1176.760808297275</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>948.7712573992578</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>727.9786782557277</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7257,19 +7259,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>634.4644740681601</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D40" t="n">
-        <v>240.7066105458822</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7402,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,13 +7490,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M42" t="n">
         <v>716.6687843969308</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D43" t="n">
-        <v>530.3315352860773</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7597,22 +7599,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362678</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,19 +7721,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>716.6687843969308</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
         <v>716.6687843969308</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2325.6047790701</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924458</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718571</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.796647783593</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y46" t="n">
-        <v>1165.004068640063</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,10 +8139,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402855</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>74.03418926528931</v>
       </c>
       <c r="M4" t="n">
         <v>171.4142040457083</v>
@@ -8152,7 +8154,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>46.56605103777612</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.92993463898938</v>
+        <v>26.19461818159743</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>63.37360602116064</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8313,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>193.6499349213312</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,28 +8534,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>21.18099370047469</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>166.7284114382044</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>254.9931412768943</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>30.32522655688288</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>47.7129014545667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>126.0028419604376</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>79.63321623493849</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>46.23519869957049</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>133.8601746357976</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>111.4161395899845</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>142.9753202488372</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>68.52575990662524</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>105.8542358274173</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>127.7255247667965</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>90.96364621897298</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25084,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>115.4620467826932</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>51.30683507832626</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>32.1518465585622</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>53.02951788468638</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>45.44677382459308</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>84.77391660562003</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25837,7 +25839,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>127.2568112467069</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>760005.6668924915</v>
+        <v>761177.7330980349</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>765428.6006104818</v>
+        <v>763134.2234242536</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>739850.7069512764</v>
+        <v>739850.7069512765</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>739850.7069512764</v>
+        <v>739850.7069512765</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>739850.7069512764</v>
+        <v>739850.7069512765</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>739850.7069512765</v>
+        <v>739850.7069512764</v>
       </c>
     </row>
     <row r="14">
@@ -26311,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
         <v>697885.504384641</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="F2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="G2" t="n">
         <v>686074.6097365058</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="I2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="J2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="L2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="G2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="H2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>686074.6097365055</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365057</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365054</v>
@@ -26353,7 +26355,7 @@
         <v>686074.6097365057</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365057</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>178997.506142712</v>
+        <v>259123.8056778329</v>
       </c>
       <c r="D3" t="n">
-        <v>301519.8707731207</v>
+        <v>138712.7919296926</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>589678.7921745729</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.394040286412866e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854471</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.5244526727</v>
+        <v>60247.15959153567</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.30240019542</v>
+        <v>33617.87336484343</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>154073.851016727</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.614506921984932e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278169.1766632065</v>
+        <v>278169.1766632064</v>
       </c>
       <c r="C4" t="n">
-        <v>230545.7787086348</v>
+        <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>146359.3674130576</v>
+        <v>170385.5244296183</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26430,34 +26432,34 @@
         <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
+        <v>14216.75207685511</v>
+      </c>
+      <c r="J4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="J4" t="n">
-        <v>14216.7520768551</v>
-      </c>
       <c r="K4" t="n">
-        <v>14216.75207685515</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685508</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="O4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="P4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.7520768551</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.9793002918</v>
+        <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>86168.04029969324</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,40 +26521,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-228626.3752110244</v>
+        <v>-228626.3752110247</v>
       </c>
       <c r="C6" t="n">
-        <v>218490.2402330024</v>
+        <v>153896.4010120583</v>
       </c>
       <c r="D6" t="n">
-        <v>157068.4937586177</v>
+        <v>302619.1477256371</v>
       </c>
       <c r="E6" t="n">
-        <v>63249.88621119794</v>
+        <v>-18943.46433882955</v>
       </c>
       <c r="F6" t="n">
-        <v>570735.3278357434</v>
+        <v>570735.3278357435</v>
       </c>
       <c r="G6" t="n">
-        <v>570735.3278357433</v>
+        <v>570735.3278357437</v>
       </c>
       <c r="H6" t="n">
+        <v>570735.3278357438</v>
+      </c>
+      <c r="I6" t="n">
         <v>570735.3278357435</v>
       </c>
-      <c r="I6" t="n">
-        <v>570735.3278357434</v>
-      </c>
       <c r="J6" t="n">
-        <v>521670.3831071987</v>
+        <v>521670.3831071986</v>
       </c>
       <c r="K6" t="n">
-        <v>529117.8033830705</v>
+        <v>510488.1682442078</v>
       </c>
       <c r="L6" t="n">
-        <v>496996.0254355479</v>
+        <v>537117.4544709</v>
       </c>
       <c r="M6" t="n">
-        <v>438128.0341068168</v>
+        <v>416661.4768190164</v>
       </c>
       <c r="N6" t="n">
         <v>570735.3278357433</v>
@@ -26561,7 +26563,7 @@
         <v>570735.3278357435</v>
       </c>
       <c r="P6" t="n">
-        <v>570735.3278357432</v>
+        <v>570735.3278357434</v>
       </c>
     </row>
   </sheetData>
@@ -26692,25 +26694,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.992550358016083e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.992550358016083e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.992550358016083e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.992550358016083e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.992550358016083e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26725,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.268133652481165e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>687.6696919955705</v>
+        <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>863.7717861790469</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2299344537558</v>
+        <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>554.4443315952306</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.992550358016083e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-2.992550358016083e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.992550358016083e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26947,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.268133652481165e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>139.199751082666</v>
+        <v>201.5110155847054</v>
       </c>
       <c r="D3" t="n">
-        <v>246.3952001219689</v>
+        <v>113.7908296814369</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>504.2037141626269</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>161.704347287436</v>
+        <v>234.0895511156619</v>
       </c>
       <c r="D4" t="n">
-        <v>291.354897646283</v>
+        <v>132.8291933132487</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>618.2639565044178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874355</v>
+        <v>234.0895511156619</v>
       </c>
       <c r="L4" t="n">
-        <v>291.354897646283</v>
+        <v>132.8291933132487</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>618.2639565044178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.992550358016083e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.992550358016083e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>161.704347287436</v>
+        <v>234.0895511156619</v>
       </c>
       <c r="L4" t="n">
-        <v>291.354897646283</v>
+        <v>132.8291933132487</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>618.2639565044178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>228.1231320398487</v>
       </c>
       <c r="F2" t="n">
-        <v>349.7903508530064</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G2" t="n">
         <v>225.5722460637382</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399025</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27470,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27518,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>187.1642276120762</v>
+        <v>209.5169395660618</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715761</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098449</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>143.9128358626521</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,13 +27545,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27558,7 +27560,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553086</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27591,19 +27593,19 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713046</v>
+        <v>98.73949432713042</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>243.2212340639547</v>
       </c>
       <c r="W4" t="n">
-        <v>98.99741117027119</v>
+        <v>98.99741117027114</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>31.05906618577492</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>179.029569587484</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>32.70043561850594</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>57.64611128795559</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>63.30830178702515</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>311.1628534397887</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.24014755885167</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.0239967969024</v>
+        <v>55.25035014635836</v>
       </c>
       <c r="T5" t="n">
-        <v>210.9942452356465</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1244928058882</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>83.95521546616473</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27707,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.85559031833735</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.321493021612</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>10.01021185642119</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8440703321075</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27777,22 +27779,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>37.02842864779606</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>121.5357799573319</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>202.4057324704885</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2513897146553</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>147.703389187835</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,10 +27858,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>307.5972391129168</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>129.8916290734613</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>155.5297899350156</v>
+        <v>251.0678569565025</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27944,7 +27946,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.4855929438821</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27980,10 +27982,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.1730436088542</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>71.88030642560439</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28011,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0.6184156886874348</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>166.4333581046933</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.3785035421427</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28062,22 +28064,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>30.03017285967746</v>
+        <v>221.290298616738</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28615,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>9.094947017729281e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29104,7 +29106,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="24">
@@ -30271,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30694,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>8.268133652481165e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>8.268133652481165e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>8.268133652481165e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>8.268133652481165e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>8.268133652481165e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>8.268133652481165e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>8.268133652481165e-14</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30745,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>8.268133652481165e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>8.268133652481165e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>8.268133652481165e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>8.268133652481165e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>8.268133652481165e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>8.268133652481165e-14</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>8.268133652481165e-14</v>
       </c>
     </row>
     <row r="45">
@@ -31039,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
         <v>317.0679923244294</v>
@@ -31075,10 +31077,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31121,7 +31123,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
         <v>40.6178210959085</v>
@@ -31130,7 +31132,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
         <v>256.1509851405032</v>
@@ -31139,7 +31141,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
         <v>280.6872536292673</v>
@@ -31148,19 +31150,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.76450127435405</v>
+        <v>3.014998820090892</v>
       </c>
       <c r="H5" t="n">
-        <v>28.31194867597842</v>
+        <v>30.87735666625586</v>
       </c>
       <c r="I5" t="n">
-        <v>106.5784353795346</v>
+        <v>116.2357420115542</v>
       </c>
       <c r="J5" t="n">
-        <v>234.6335900342073</v>
+        <v>255.8942561066896</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6549289776143</v>
+        <v>383.5191561611372</v>
       </c>
       <c r="L5" t="n">
-        <v>436.2590348526271</v>
+        <v>475.7894263014939</v>
       </c>
       <c r="M5" t="n">
-        <v>485.422234390421</v>
+        <v>529.4074115682853</v>
       </c>
       <c r="N5" t="n">
-        <v>493.2768736361795</v>
+        <v>537.9737769658685</v>
       </c>
       <c r="O5" t="n">
-        <v>465.7873640893213</v>
+        <v>507.9933824485897</v>
       </c>
       <c r="P5" t="n">
-        <v>397.5387388787057</v>
+        <v>433.5605990775957</v>
       </c>
       <c r="Q5" t="n">
-        <v>298.5350369909011</v>
+        <v>325.5859538330906</v>
       </c>
       <c r="R5" t="n">
-        <v>173.6556031751427</v>
+        <v>189.3909196325347</v>
       </c>
       <c r="S5" t="n">
-        <v>62.99607278934298</v>
+        <v>68.70428561282128</v>
       </c>
       <c r="T5" t="n">
-        <v>12.10160432848486</v>
+        <v>13.19815733494789</v>
       </c>
       <c r="U5" t="n">
-        <v>0.221160101948324</v>
+        <v>0.2411999056072713</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.479138582782925</v>
+        <v>1.613166585674105</v>
       </c>
       <c r="H6" t="n">
-        <v>14.28536473371931</v>
+        <v>15.57979307743149</v>
       </c>
       <c r="I6" t="n">
-        <v>50.92648190721914</v>
+        <v>55.54104253307773</v>
       </c>
       <c r="J6" t="n">
-        <v>139.746158823364</v>
+        <v>152.4088658859908</v>
       </c>
       <c r="K6" t="n">
-        <v>238.84844386982</v>
+        <v>260.4910271261558</v>
       </c>
       <c r="L6" t="n">
-        <v>321.1612085117049</v>
+        <v>350.2623325605112</v>
       </c>
       <c r="M6" t="n">
-        <v>374.7799821375859</v>
+        <v>408.7396212911974</v>
       </c>
       <c r="N6" t="n">
-        <v>384.6992930721258</v>
+        <v>419.5577428240734</v>
       </c>
       <c r="O6" t="n">
-        <v>351.9246960536199</v>
+        <v>383.8133674257156</v>
       </c>
       <c r="P6" t="n">
-        <v>282.4505948122939</v>
+        <v>308.0440649433297</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.8107426022555</v>
+        <v>205.919299602891</v>
       </c>
       <c r="R6" t="n">
-        <v>91.83634113103113</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>27.47435043020037</v>
+        <v>29.96386179969223</v>
       </c>
       <c r="T6" t="n">
-        <v>5.961966480603104</v>
+        <v>6.502193386993428</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09731174886729775</v>
+        <v>0.1061293806364543</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.240060100319881</v>
+        <v>1.352424675651428</v>
       </c>
       <c r="H7" t="n">
-        <v>11.02526161920768</v>
+        <v>12.02428484351907</v>
       </c>
       <c r="I7" t="n">
-        <v>37.29198919871062</v>
+        <v>40.67109842777204</v>
       </c>
       <c r="J7" t="n">
-        <v>87.67224909261559</v>
+        <v>95.61642456855594</v>
       </c>
       <c r="K7" t="n">
-        <v>144.0724371098916</v>
+        <v>157.1271577711386</v>
       </c>
       <c r="L7" t="n">
-        <v>184.3631170966485</v>
+        <v>201.0686649600314</v>
       </c>
       <c r="M7" t="n">
-        <v>194.385057361961</v>
+        <v>211.9987152932506</v>
       </c>
       <c r="N7" t="n">
-        <v>189.7630151698598</v>
+        <v>206.9578596840045</v>
       </c>
       <c r="O7" t="n">
-        <v>175.2768585433956</v>
+        <v>191.15908051844</v>
       </c>
       <c r="P7" t="n">
-        <v>149.9796324968699</v>
+        <v>163.5696171351508</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.8381234913311</v>
+        <v>113.2471244311391</v>
       </c>
       <c r="R7" t="n">
-        <v>55.75761141983754</v>
+        <v>60.80993132519963</v>
       </c>
       <c r="S7" t="n">
-        <v>21.61086556648374</v>
+        <v>23.56907366567078</v>
       </c>
       <c r="T7" t="n">
-        <v>5.298438610457672</v>
+        <v>5.778541795965189</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06763964183562995</v>
+        <v>0.07376861867189614</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.472449391674558</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>35.56222233248707</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>133.8716051725335</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>294.7198015566387</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>441.7085843062229</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>547.9785573766833</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>609.7317292458756</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>619.597826079971</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>585.0686574415071</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>499.3425630845414</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>374.9854692451962</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>218.1262490997771</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>79.12844051278407</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>15.20064721205538</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.2777959513339646</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>1.857924219328516</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>17.94363653930435</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>63.96800491986339</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>175.5330947743665</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>300.0140174693771</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>403.4058705169219</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>470.7556234675805</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>483.2151240436916</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>442.0474347627807</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>354.7820379873901</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>237.162396839198</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>115.3542774070811</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>34.5101274949836</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>7.488738410363621</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1222318565347708</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.557621253765494</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>13.84866896529686</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>46.84191915869324</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>110.1238226412204</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>180.9672693011183</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>231.5757998552809</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>244.1642116243492</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>238.3585324057689</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>220.1626841231447</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>188.3872105463284</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>130.4295397130361</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>70.03631564658302</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>27.14509039516774</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>6.655290811543473</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.08496115929629978</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,10 +31849,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -32078,25 +32080,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32251,7 +32253,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
         <v>593.8732233669223</v>
@@ -32312,22 +32314,22 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O18" t="n">
-        <v>225.4828684302377</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32482,7 +32484,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460027</v>
@@ -32494,7 +32496,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32552,7 +32554,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,10 +32563,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>139.5228722182831</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32792,22 +32794,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
@@ -33044,7 +33046,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>248.3870916262918</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33263,10 +33265,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L30" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,7 +33280,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33509,19 +33511,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>595.327537312171</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33977,7 +33979,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>340.7767527663067</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34208,16 +34210,16 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>616.5397119226058</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34442,19 +34444,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>277.4567226539314</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
@@ -34787,16 +34789,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>86.19340501175009</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>28.45844197068223</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.58768550752097</v>
+        <v>74.84835158000331</v>
       </c>
       <c r="K5" t="n">
-        <v>131.5650779326338</v>
+        <v>163.4293051161566</v>
       </c>
       <c r="L5" t="n">
-        <v>200.4926198826399</v>
+        <v>240.0230113315067</v>
       </c>
       <c r="M5" t="n">
-        <v>255.0760011631482</v>
+        <v>299.0611783410126</v>
       </c>
       <c r="N5" t="n">
-        <v>263.8638100395885</v>
+        <v>308.5607133692776</v>
       </c>
       <c r="O5" t="n">
-        <v>235.6891526676346</v>
+        <v>277.895171026903</v>
       </c>
       <c r="P5" t="n">
-        <v>166.3057431234361</v>
+        <v>202.3276033223262</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.22934711645163</v>
+        <v>103.2802639586411</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12.90853215669733</v>
+        <v>88.94484524048471</v>
       </c>
       <c r="K6" t="n">
-        <v>101.007004895461</v>
+        <v>122.6495881517968</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6068287318307</v>
+        <v>211.707952780637</v>
       </c>
       <c r="M6" t="n">
-        <v>232.6459482155676</v>
+        <v>266.6055873691791</v>
       </c>
       <c r="N6" t="n">
-        <v>253.3575809887925</v>
+        <v>288.2160307407401</v>
       </c>
       <c r="O6" t="n">
-        <v>209.3284516091755</v>
+        <v>241.2171229812711</v>
       </c>
       <c r="P6" t="n">
-        <v>148.4761873979637</v>
+        <v>174.0696575289995</v>
       </c>
       <c r="Q6" t="n">
-        <v>242.4789034375652</v>
+        <v>276.0148132527186</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2.257244451883167</v>
       </c>
       <c r="K7" t="n">
-        <v>121.8029452840088</v>
+        <v>134.8576659452557</v>
       </c>
       <c r="L7" t="n">
-        <v>211.9531423569647</v>
+        <v>228.6586902203475</v>
       </c>
       <c r="M7" t="n">
-        <v>233.9689343238016</v>
+        <v>251.5825922550912</v>
       </c>
       <c r="N7" t="n">
-        <v>233.8951875490883</v>
+        <v>251.0900320632331</v>
       </c>
       <c r="O7" t="n">
-        <v>199.8619864574353</v>
+        <v>215.7442084324797</v>
       </c>
       <c r="P7" t="n">
-        <v>147.2581917617634</v>
+        <v>160.8481764000443</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.67608023963675</v>
+        <v>27.08508117944473</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>113.6738970299525</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>221.6187332612423</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>312.212142406696</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>379.3854960186029</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>390.1847624833801</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>354.9704460198203</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>268.1095673292718</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>152.6797793707467</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>2.540711285645017</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>48.69546810769984</v>
       </c>
       <c r="K9" t="n">
-        <v>207.7684899439595</v>
+        <v>162.1725784950181</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>431.5799021752521</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000389</v>
+        <v>328.6215895455622</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>351.8734119603582</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>554.4443315952306</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>220.8076305730598</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>97.18062275317644</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>16.76464252454767</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>158.6977774752354</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>259.165825115597</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>283.7480885861898</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>282.4907047849975</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>244.7478120371843</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>185.6657698112219</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>44.26749646134168</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35495,10 +35497,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35899,7 +35901,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
@@ -35960,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O18" t="n">
-        <v>82.88662398579324</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36130,7 +36132,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>8.181160134949776</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36440,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36692,7 +36694,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>108.4053175402703</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,10 +36913,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L30" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,7 +36928,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37157,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9858252288377</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37625,7 +37627,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -38090,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>138.9023428740572</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2941347.041247352</v>
+        <v>2937042.289008538</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8611468.456689451</v>
+        <v>8611468.456689449</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>145.1986582043253</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="E2" t="n">
-        <v>153.8072380324131</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663199</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663199</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,25 +740,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>73.41885874331113</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>26.91122581714234</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>42.1780435948578</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,31 +861,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>112.9689816614025</v>
       </c>
       <c r="U4" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>8.916409259873294</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2877386950441</v>
+        <v>47.14398562873566</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.24014755885166</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>85.0654338270657</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -983,10 +983,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.85559031833734</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
-        <v>183.652323451407</v>
+        <v>77.99112952828368</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>109.4055339987731</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>20.29684812141807</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>47.08580250776618</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>318.9989010714729</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8302881234605</v>
+        <v>11.83028812346049</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9125797832801</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.60428439787239</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.895202352076</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29180769719211</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>25.42862793155169</v>
+        <v>25.42862793155176</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>22.4115012715847</v>
       </c>
       <c r="T9" t="n">
-        <v>120.7956838588536</v>
+        <v>192.675990284458</v>
       </c>
       <c r="U9" t="n">
         <v>225.8191502244401</v>
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>147.9970573295249</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>108.608555768565</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2570757305865</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8715076418045</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340681971946</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>95.0649383246937</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695527</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>117.8112368377021</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174105</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1773,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,19 +1821,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>206.5512581543057</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>177.9413471369449</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>31.66396365647122</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892427987</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>143.2091541404069</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>80.08971311158712</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417106</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>112.7304175246775</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3000,10 +3000,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>126.4418041083153</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>29.959001240238</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>126.8024622972509</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3912,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>132.6315337216687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>261.9345988277395</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444129</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4149,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>53.76947475493767</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>549.202463503662</v>
+        <v>603.4370373477802</v>
       </c>
       <c r="C2" t="n">
-        <v>549.202463503662</v>
+        <v>414.0172523312953</v>
       </c>
       <c r="D2" t="n">
-        <v>549.202463503662</v>
+        <v>224.5974673148103</v>
       </c>
       <c r="E2" t="n">
-        <v>393.841617006275</v>
+        <v>35.17768229832529</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897903</v>
+        <v>28.23218154912182</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201467</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201467</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201467</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="U2" t="n">
-        <v>738.6222485201467</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="V2" t="n">
-        <v>738.6222485201467</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="W2" t="n">
-        <v>738.6222485201467</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="X2" t="n">
-        <v>738.6222485201467</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="Y2" t="n">
-        <v>549.202463503662</v>
+        <v>750.1023486652805</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>301.4756378121077</v>
+        <v>722.9192922843287</v>
       </c>
       <c r="C3" t="n">
-        <v>301.4756378121077</v>
+        <v>548.4662630032017</v>
       </c>
       <c r="D3" t="n">
-        <v>152.5412281508565</v>
+        <v>399.5318533419504</v>
       </c>
       <c r="E3" t="n">
-        <v>152.5412281508565</v>
+        <v>240.2943983364949</v>
       </c>
       <c r="F3" t="n">
-        <v>152.5412281508565</v>
+        <v>240.2943983364949</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>166.133934959413</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546599</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476346</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843275</v>
+        <v>722.9192922843287</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843275</v>
+        <v>722.9192922843287</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843275</v>
+        <v>722.9192922843287</v>
       </c>
       <c r="U3" t="n">
-        <v>722.9192922843275</v>
+        <v>722.9192922843287</v>
       </c>
       <c r="V3" t="n">
-        <v>722.9192922843275</v>
+        <v>722.9192922843287</v>
       </c>
       <c r="W3" t="n">
-        <v>680.3152078450772</v>
+        <v>722.9192922843287</v>
       </c>
       <c r="X3" t="n">
-        <v>490.8954228285925</v>
+        <v>722.9192922843287</v>
       </c>
       <c r="Y3" t="n">
-        <v>301.4756378121077</v>
+        <v>722.9192922843287</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.67250990818523</v>
+        <v>632.6154154983631</v>
       </c>
       <c r="C4" t="n">
-        <v>38.67250990818523</v>
+        <v>463.6792325704562</v>
       </c>
       <c r="D4" t="n">
-        <v>38.67250990818523</v>
+        <v>313.5625931581204</v>
       </c>
       <c r="E4" t="n">
-        <v>38.67250990818523</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="F4" t="n">
-        <v>38.67250990818523</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="G4" t="n">
-        <v>38.67250990818523</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="H4" t="n">
-        <v>38.67250990818523</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818523</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L4" t="n">
-        <v>100.3335179349382</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>285.9838492295949</v>
+        <v>373.5399563830977</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242515</v>
+        <v>559.1902876777546</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608017</v>
+        <v>721.9284911143047</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652795</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="R4" t="n">
-        <v>615.9383389575114</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="S4" t="n">
-        <v>615.9383389575114</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="T4" t="n">
-        <v>615.9383389575114</v>
+        <v>632.6154154983631</v>
       </c>
       <c r="U4" t="n">
-        <v>426.5185539410267</v>
+        <v>632.6154154983631</v>
       </c>
       <c r="V4" t="n">
-        <v>417.5120799411546</v>
+        <v>632.6154154983631</v>
       </c>
       <c r="W4" t="n">
-        <v>228.0922949246699</v>
+        <v>632.6154154983631</v>
       </c>
       <c r="X4" t="n">
-        <v>228.0922949246699</v>
+        <v>632.6154154983631</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.67250990818523</v>
+        <v>632.6154154983631</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>861.1673771602915</v>
+        <v>183.4869675567997</v>
       </c>
       <c r="C5" t="n">
-        <v>861.1673771602915</v>
+        <v>183.4869675567997</v>
       </c>
       <c r="D5" t="n">
-        <v>861.1673771602915</v>
+        <v>183.4869675567997</v>
       </c>
       <c r="E5" t="n">
-        <v>861.1673771602915</v>
+        <v>183.4869675567997</v>
       </c>
       <c r="F5" t="n">
-        <v>450.1814723706839</v>
+        <v>176.5414668075962</v>
       </c>
       <c r="G5" t="n">
-        <v>33.72921106255854</v>
+        <v>128.9212793038228</v>
       </c>
       <c r="H5" t="n">
-        <v>33.72921106255854</v>
+        <v>128.9212793038228</v>
       </c>
       <c r="I5" t="n">
         <v>33.72921106255854</v>
@@ -4594,25 +4594,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S5" t="n">
-        <v>1600.535872494527</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T5" t="n">
-        <v>1600.535872494527</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="U5" t="n">
-        <v>1600.535872494527</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="V5" t="n">
-        <v>1600.535872494527</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="W5" t="n">
-        <v>1247.767217224413</v>
+        <v>1333.691897857813</v>
       </c>
       <c r="X5" t="n">
-        <v>1247.767217224413</v>
+        <v>960.2261395967332</v>
       </c>
       <c r="Y5" t="n">
-        <v>1247.767217224413</v>
+        <v>570.0868076209215</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>662.8886629835073</v>
+        <v>391.3142159830553</v>
       </c>
       <c r="C6" t="n">
-        <v>488.4356337023803</v>
+        <v>216.8611867019283</v>
       </c>
       <c r="D6" t="n">
-        <v>339.501224041129</v>
+        <v>67.92677704067707</v>
       </c>
       <c r="E6" t="n">
-        <v>180.2637690356736</v>
+        <v>67.92677704067707</v>
       </c>
       <c r="F6" t="n">
-        <v>33.72921106255854</v>
+        <v>67.92677704067707</v>
       </c>
       <c r="G6" t="n">
-        <v>33.72921106255854</v>
+        <v>67.92677704067707</v>
       </c>
       <c r="H6" t="n">
-        <v>33.72921106255854</v>
+        <v>67.92677704067707</v>
       </c>
       <c r="I6" t="n">
         <v>33.72921106255854</v>
       </c>
       <c r="J6" t="n">
-        <v>121.7846078506384</v>
+        <v>121.7846078506383</v>
       </c>
       <c r="K6" t="n">
-        <v>243.2077001209172</v>
+        <v>243.2077001209171</v>
       </c>
       <c r="L6" t="n">
         <v>452.7985733737478</v>
       </c>
       <c r="M6" t="n">
-        <v>716.7381048692351</v>
+        <v>716.738104869235</v>
       </c>
       <c r="N6" t="n">
         <v>1002.071975302568</v>
@@ -4673,25 +4673,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S6" t="n">
-        <v>1686.460553127927</v>
+        <v>1543.309735648992</v>
       </c>
       <c r="T6" t="n">
-        <v>1500.953155702264</v>
+        <v>1464.530816933554</v>
       </c>
       <c r="U6" t="n">
-        <v>1500.953155702264</v>
+        <v>1464.530816933554</v>
       </c>
       <c r="V6" t="n">
-        <v>1500.953155702264</v>
+        <v>1229.378708701812</v>
       </c>
       <c r="W6" t="n">
-        <v>1246.715798974062</v>
+        <v>975.14135197361</v>
       </c>
       <c r="X6" t="n">
-        <v>1038.864298768529</v>
+        <v>767.2898517680771</v>
       </c>
       <c r="Y6" t="n">
-        <v>831.1040000035753</v>
+        <v>559.5295530031233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>459.4515713701462</v>
+        <v>352.7820334028012</v>
       </c>
       <c r="C7" t="n">
-        <v>459.4515713701462</v>
+        <v>183.8458504748943</v>
       </c>
       <c r="D7" t="n">
-        <v>459.4515713701462</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="E7" t="n">
-        <v>348.940930967345</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="F7" t="n">
-        <v>202.0509834694346</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="G7" t="n">
         <v>33.72921106255854</v>
@@ -4749,28 +4749,28 @@
         <v>1293.13166510086</v>
       </c>
       <c r="R7" t="n">
-        <v>1175.471604442305</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="S7" t="n">
-        <v>972.9993576026061</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="T7" t="n">
-        <v>748.5881983780441</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="U7" t="n">
-        <v>459.4515713701462</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="V7" t="n">
-        <v>459.4515713701462</v>
+        <v>1272.629798311549</v>
       </c>
       <c r="W7" t="n">
-        <v>459.4515713701462</v>
+        <v>983.2126282745884</v>
       </c>
       <c r="X7" t="n">
-        <v>459.4515713701462</v>
+        <v>755.223077376571</v>
       </c>
       <c r="Y7" t="n">
-        <v>459.4515713701462</v>
+        <v>534.4304982330409</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1303.253526885286</v>
+        <v>1491.542912849725</v>
       </c>
       <c r="C8" t="n">
-        <v>1303.253526885286</v>
+        <v>1122.580395909313</v>
       </c>
       <c r="D8" t="n">
-        <v>1255.692110210774</v>
+        <v>764.314697302563</v>
       </c>
       <c r="E8" t="n">
-        <v>1255.692110210774</v>
+        <v>378.5264447043187</v>
       </c>
       <c r="F8" t="n">
-        <v>844.7062054211669</v>
+        <v>56.30533251091181</v>
       </c>
       <c r="G8" t="n">
-        <v>428.7160153974694</v>
+        <v>44.35554652761838</v>
       </c>
       <c r="H8" t="n">
-        <v>121.7336115759744</v>
+        <v>44.35554652761838</v>
       </c>
       <c r="I8" t="n">
-        <v>44.35554652761844</v>
+        <v>44.35554652761838</v>
       </c>
       <c r="J8" t="n">
         <v>156.8927045872715</v>
       </c>
       <c r="K8" t="n">
-        <v>376.2952505159013</v>
+        <v>376.295250515901</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985301</v>
+        <v>685.3852714985294</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.976912556947</v>
+        <v>1060.976912556946</v>
       </c>
       <c r="N8" t="n">
-        <v>1447.259827415493</v>
+        <v>1447.259827415491</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.680568975115</v>
+        <v>1798.680568975113</v>
       </c>
       <c r="P8" t="n">
-        <v>2064.109040631094</v>
+        <v>2064.109040631091</v>
       </c>
       <c r="Q8" t="n">
-        <v>2215.262022208134</v>
+        <v>2215.26202220813</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.777326380922</v>
+        <v>2217.777326380919</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.777326380922</v>
+        <v>2217.777326380919</v>
       </c>
       <c r="T8" t="n">
-        <v>2007.782172489936</v>
+        <v>2217.777326380919</v>
       </c>
       <c r="U8" t="n">
-        <v>2007.782172489936</v>
+        <v>2217.777326380919</v>
       </c>
       <c r="V8" t="n">
-        <v>1676.719285146366</v>
+        <v>2217.777326380919</v>
       </c>
       <c r="W8" t="n">
-        <v>1676.719285146366</v>
+        <v>1865.008671110805</v>
       </c>
       <c r="X8" t="n">
-        <v>1303.253526885286</v>
+        <v>1491.542912849725</v>
       </c>
       <c r="Y8" t="n">
-        <v>1303.253526885286</v>
+        <v>1491.542912849725</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>794.4447314068942</v>
+        <v>699.2004812077104</v>
       </c>
       <c r="C9" t="n">
-        <v>619.9917021257672</v>
+        <v>524.7474519265834</v>
       </c>
       <c r="D9" t="n">
-        <v>471.057292464516</v>
+        <v>375.8130422653321</v>
       </c>
       <c r="E9" t="n">
-        <v>311.8198374590605</v>
+        <v>216.5755872598766</v>
       </c>
       <c r="F9" t="n">
-        <v>165.2852794859455</v>
+        <v>70.04102928676157</v>
       </c>
       <c r="G9" t="n">
-        <v>165.2852794859455</v>
+        <v>70.04102928676157</v>
       </c>
       <c r="H9" t="n">
-        <v>70.04102928676156</v>
+        <v>70.04102928676157</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35554652761844</v>
+        <v>44.35554652761838</v>
       </c>
       <c r="J9" t="n">
-        <v>92.56405995424129</v>
+        <v>92.56405995424106</v>
       </c>
       <c r="K9" t="n">
-        <v>253.1149126643092</v>
+        <v>514.9354973067615</v>
       </c>
       <c r="L9" t="n">
-        <v>680.3790158178089</v>
+        <v>777.1384731364383</v>
       </c>
       <c r="M9" t="n">
-        <v>1005.714389467915</v>
+        <v>1102.473846786544</v>
       </c>
       <c r="N9" t="n">
-        <v>1354.06906730867</v>
+        <v>1450.828524627299</v>
       </c>
       <c r="O9" t="n">
-        <v>1902.968955587948</v>
+        <v>1747.285203042451</v>
       </c>
       <c r="P9" t="n">
-        <v>2121.568509855278</v>
+        <v>1965.88475730978</v>
       </c>
       <c r="Q9" t="n">
-        <v>2217.777326380922</v>
+        <v>2217.777326380919</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.777326380922</v>
+        <v>2217.777326380919</v>
       </c>
       <c r="S9" t="n">
-        <v>2217.777326380922</v>
+        <v>2195.139446308611</v>
       </c>
       <c r="T9" t="n">
-        <v>2095.761484099252</v>
+        <v>2000.517233900068</v>
       </c>
       <c r="U9" t="n">
-        <v>1867.661332357393</v>
+        <v>1772.417082158209</v>
       </c>
       <c r="V9" t="n">
-        <v>1632.50922412565</v>
+        <v>1537.264973926467</v>
       </c>
       <c r="W9" t="n">
-        <v>1378.271867397449</v>
+        <v>1283.027617198265</v>
       </c>
       <c r="X9" t="n">
-        <v>1170.420367191916</v>
+        <v>1075.176116992732</v>
       </c>
       <c r="Y9" t="n">
-        <v>962.6600684269622</v>
+        <v>867.4158182277783</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>472.489318443495</v>
+        <v>489.2752270202576</v>
       </c>
       <c r="C10" t="n">
-        <v>303.5531355155881</v>
+        <v>489.2752270202576</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0611584150579</v>
+        <v>339.1585876079218</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0611584150579</v>
+        <v>191.2454940255287</v>
       </c>
       <c r="F10" t="n">
-        <v>154.0611584150579</v>
+        <v>44.35554652761838</v>
       </c>
       <c r="G10" t="n">
-        <v>154.0611584150579</v>
+        <v>44.35554652761838</v>
       </c>
       <c r="H10" t="n">
-        <v>154.0611584150579</v>
+        <v>44.35554652761838</v>
       </c>
       <c r="I10" t="n">
-        <v>44.35554652761844</v>
+        <v>44.35554652761838</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262692063</v>
+        <v>60.95254262692045</v>
       </c>
       <c r="K10" t="n">
-        <v>218.0633423274037</v>
+        <v>218.0633423274033</v>
       </c>
       <c r="L10" t="n">
-        <v>474.6375091918447</v>
+        <v>474.6375091918442</v>
       </c>
       <c r="M10" t="n">
-        <v>755.5481168921726</v>
+        <v>755.5481168921717</v>
       </c>
       <c r="N10" t="n">
-        <v>1035.21391462932</v>
+        <v>1035.213914629319</v>
       </c>
       <c r="O10" t="n">
-        <v>1277.514248546133</v>
+        <v>1277.514248546131</v>
       </c>
       <c r="P10" t="n">
-        <v>1461.323360659242</v>
+        <v>1461.323360659241</v>
       </c>
       <c r="Q10" t="n">
-        <v>1505.148182155971</v>
+        <v>1505.148182155969</v>
       </c>
       <c r="R10" t="n">
-        <v>1396.807701620025</v>
+        <v>1505.148182155969</v>
       </c>
       <c r="S10" t="n">
-        <v>1197.947592890929</v>
+        <v>1505.148182155969</v>
       </c>
       <c r="T10" t="n">
-        <v>1197.947592890929</v>
+        <v>1505.148182155969</v>
       </c>
       <c r="U10" t="n">
-        <v>908.8222714796216</v>
+        <v>1505.148182155969</v>
       </c>
       <c r="V10" t="n">
-        <v>654.1377832737347</v>
+        <v>1409.122991929005</v>
       </c>
       <c r="W10" t="n">
-        <v>654.1377832737347</v>
+        <v>1119.705821892045</v>
       </c>
       <c r="X10" t="n">
-        <v>654.1377832737347</v>
+        <v>891.7162709940275</v>
       </c>
       <c r="Y10" t="n">
-        <v>654.1377832737347</v>
+        <v>670.9236918504973</v>
       </c>
     </row>
     <row r="11">
@@ -5032,31 +5032,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5080,7 +5080,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591808</v>
@@ -5129,13 +5129,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>734.6461798836013</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>584.5295404712656</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>436.6164468888725</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>436.6164468888725</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5272,49 +5272,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852888</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468466</v>
       </c>
       <c r="L15" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M15" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589156</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811333</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U16" t="n">
-        <v>1835.869149758807</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="V16" t="n">
-        <v>1581.18466155292</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="W16" t="n">
-        <v>1581.18466155292</v>
+        <v>1688.043910473546</v>
       </c>
       <c r="X16" t="n">
-        <v>1353.195110654903</v>
+        <v>1460.054359575528</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511373</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638193094</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111762</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075851</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332391</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014782</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5594,25 +5594,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468468</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C19" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D19" t="n">
-        <v>414.4022433768874</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="E19" t="n">
-        <v>414.4022433768874</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="F19" t="n">
-        <v>267.5122958789771</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270425</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,10 +5764,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5843,13 +5843,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2052.406834234631</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1797.722346028744</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1508.305175991783</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5983,25 +5983,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6080,13 +6080,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>734.6461798836013</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>565.7099969556945</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.2946447138411</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6220,19 +6220,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1394.184733704551</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,31 +6454,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,16 +6496,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6545,10 +6545,10 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
         <v>1373.553594266881</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
         <v>402.7245934908939</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2252.19838578386</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1963.123159128057</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1708.43867092217</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6694,13 +6694,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075802</v>
@@ -6715,37 +6715,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6791,16 +6791,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>580.8993044876688</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>580.8993044876688</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>432.9862109052757</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7168,7 +7168,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192599</v>
@@ -7177,16 +7177,16 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>634.4644740681601</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>465.5282911402533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>465.5282911402533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192741</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7426,34 +7426,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819168</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695811</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>516.389687887188</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>369.4997403892776</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7599,22 +7599,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362678</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7721,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>931.4710609784063</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2325.6047790701</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2106.003314093041</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>2106.003314093041</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1851.318825887154</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1561.901655850193</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1333.912104952176</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>1113.119525808646</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
-        <v>74.03418926528931</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>163.8604018711118</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>46.5660510377764</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>63.37360602116064</v>
+        <v>63.37360602116058</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8534,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>166.7284114382044</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>254.9931412768943</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>157.2563157025199</v>
       </c>
       <c r="R9" t="n">
-        <v>30.32522655688288</v>
+        <v>30.32522655688301</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>47.7129014545667</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>79.63321623493849</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>40.64330621514989</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>133.8601746357976</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194402</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>142.9753202488372</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>68.52575990662524</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>105.8542358274173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>38.5977558415268</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>90.96364621897298</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>115.4620467826932</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.02951788468638</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>24.58839950885152</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>127.2568112467069</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>739850.7069512765</v>
+        <v>739850.7069512764</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>739850.7069512765</v>
+        <v>739850.7069512764</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>739850.7069512765</v>
+        <v>739850.7069512764</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>739850.7069512765</v>
+        <v>739850.7069512764</v>
       </c>
     </row>
     <row r="13">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="F2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="G2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="H2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="I2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="G2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="H2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.6097365058</v>
-      </c>
       <c r="J2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365057</v>
@@ -26346,16 +26346,16 @@
         <v>686074.6097365055</v>
       </c>
       <c r="M2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="N2" t="n">
         <v>686074.6097365055</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365054</v>
       </c>
       <c r="O2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
     </row>
     <row r="3">
@@ -26365,49 +26365,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>259123.8056778329</v>
+        <v>259123.8056778326</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.7919296926</v>
+        <v>138712.7919296915</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.7921745729</v>
+        <v>589678.7921745742</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.394040286412866e-11</v>
+        <v>1.869591415015748e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>6.964064596104436e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854456</v>
       </c>
       <c r="K3" t="n">
         <v>60247.15959153567</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.87336484343</v>
+        <v>33617.8733648432</v>
       </c>
       <c r="M3" t="n">
-        <v>154073.851016727</v>
+        <v>154073.8510167272</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.18870809476357e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>6.614506921984932e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278169.1766632064</v>
+        <v>278169.1766632063</v>
       </c>
       <c r="C4" t="n">
         <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>170385.5244296183</v>
+        <v>170385.5244296186</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685516</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.7520768551</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
+        <v>14216.75207685505</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14216.75207685509</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14216.75207685501</v>
+      </c>
+      <c r="L4" t="n">
         <v>14216.75207685511</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="L4" t="n">
-        <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="O4" t="n">
+        <v>14216.75207685501</v>
+      </c>
+      <c r="P4" t="n">
         <v>14216.75207685505</v>
-      </c>
-      <c r="P4" t="n">
-        <v>14216.7520768551</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
         <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>86168.04029969324</v>
+        <v>86168.04029969317</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-228626.3752110247</v>
       </c>
       <c r="C6" t="n">
-        <v>153896.4010120583</v>
+        <v>153896.4010120588</v>
       </c>
       <c r="D6" t="n">
-        <v>302619.1477256371</v>
+        <v>302619.1477256375</v>
       </c>
       <c r="E6" t="n">
-        <v>-18943.46433882955</v>
+        <v>-19290.84359318776</v>
       </c>
       <c r="F6" t="n">
-        <v>570735.3278357435</v>
+        <v>570387.9485813872</v>
       </c>
       <c r="G6" t="n">
-        <v>570735.3278357437</v>
+        <v>570387.948581386</v>
       </c>
       <c r="H6" t="n">
-        <v>570735.3278357438</v>
+        <v>570387.9485813857</v>
       </c>
       <c r="I6" t="n">
-        <v>570735.3278357435</v>
+        <v>570387.9485813866</v>
       </c>
       <c r="J6" t="n">
-        <v>521670.3831071986</v>
+        <v>521323.0038528419</v>
       </c>
       <c r="K6" t="n">
-        <v>510488.1682442078</v>
+        <v>510140.7889898508</v>
       </c>
       <c r="L6" t="n">
-        <v>537117.4544709</v>
+        <v>536770.0752165432</v>
       </c>
       <c r="M6" t="n">
-        <v>416661.4768190164</v>
+        <v>416314.0975646594</v>
       </c>
       <c r="N6" t="n">
-        <v>570735.3278357433</v>
+        <v>570387.9485813866</v>
       </c>
       <c r="O6" t="n">
-        <v>570735.3278357435</v>
+        <v>570387.9485813864</v>
       </c>
       <c r="P6" t="n">
-        <v>570735.3278357434</v>
+        <v>570387.9485813865</v>
       </c>
     </row>
   </sheetData>
@@ -26694,25 +26694,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>2.992550358016083e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.902365434864647e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>2.992550358016083e-14</v>
+        <v>8.902365434864647e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>2.992550358016083e-14</v>
+        <v>8.902365434864647e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>2.992550358016083e-14</v>
+        <v>8.902365434864647e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>2.992550358016083e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8.268133652481165e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>863.7717861790469</v>
+        <v>863.771786179046</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952306</v>
+        <v>554.4443315952298</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.992550358016083e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.992550358016083e-14</v>
+        <v>8.902365434864647e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>2.992550358016083e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8.268133652481165e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>201.5110155847054</v>
+        <v>201.5110155847052</v>
       </c>
       <c r="D3" t="n">
-        <v>113.7908296814369</v>
+        <v>113.790829681436</v>
       </c>
       <c r="E3" t="n">
-        <v>504.2037141626269</v>
+        <v>504.203714162628</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-5.371782223077559e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,46 +27011,46 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>187.5255871663201</v>
+      </c>
+      <c r="C4" t="n">
+        <v>234.0895511156617</v>
+      </c>
+      <c r="D4" t="n">
+        <v>132.829193313248</v>
+      </c>
+      <c r="E4" t="n">
+        <v>618.2639565044186</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-6.821210263296962e-13</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6.821210263296962e-13</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>187.5255871663199</v>
-      </c>
-      <c r="C4" t="n">
-        <v>234.0895511156619</v>
-      </c>
-      <c r="D4" t="n">
-        <v>132.8291933132487</v>
-      </c>
-      <c r="E4" t="n">
-        <v>618.2639565044178</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
         <v>234.0895511156619</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132487</v>
+        <v>132.8291933132478</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044178</v>
+        <v>618.2639565044188</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.992550358016083e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.902365434864647e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>2.992550358016083e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156619</v>
+        <v>234.0895511156617</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132487</v>
+        <v>132.829193313248</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044178</v>
+        <v>618.2639565044186</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>237.5351834591553</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046874</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543628</v>
       </c>
       <c r="E2" t="n">
-        <v>228.1231320398487</v>
+        <v>194.4047829059417</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753916</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637382</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27460,25 +27460,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>62.7449306224642</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>209.5169395660618</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715761</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098449</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27539,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,7 +27557,7 @@
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>110.7506918286976</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713042</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>243.2212340639547</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>98.99741117027114</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.05906618577492</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>365.1437530663085</v>
       </c>
       <c r="H5" t="n">
         <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
-        <v>94.24014755885167</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>55.25035014635836</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T5" t="n">
         <v>209.8976922291835</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27703,10 +27703,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.7303505775365</v>
@@ -27715,7 +27715,7 @@
         <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
-        <v>33.85559031833735</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,16 +27745,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.7193093041456</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>10.01021185642119</v>
+        <v>115.6714057795445</v>
       </c>
       <c r="U6" t="n">
         <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>37.02842864779606</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
         <v>150.2028876639205</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>231.8407952024099</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>307.5972391129168</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>87.87714467023858</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>303.9125797832801</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>76.60428439787253</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.8916290734613</v>
+        <v>129.8916290734614</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.895202352076</v>
       </c>
       <c r="U8" t="n">
         <v>251.0678569565025</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27949,7 +27949,7 @@
         <v>135.4855929438821</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.29180769719213</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,10 +27982,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1730436088542</v>
+        <v>114.7615423372695</v>
       </c>
       <c r="T9" t="n">
-        <v>71.88030642560439</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6184156886874348</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.4333581046933</v>
@@ -28031,7 +28031,7 @@
         <v>148.3785035421427</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>108.6085557685651</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>107.2570757305865</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>196.8715076418046</v>
       </c>
       <c r="T10" t="n">
         <v>221.290298616738</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2340681971946</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>157.0727049991343</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28389,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.490872901574189e-12</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28617,10 +28617,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>9.094947017729281e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29106,7 +29106,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>8.038590482916834e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>8.268133652481165e-14</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>8.268133652481165e-14</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>8.268133652481165e-14</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>8.268133652481165e-14</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>8.268133652481165e-14</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>8.268133652481165e-14</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>8.268133652481165e-14</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>8.268133652481165e-14</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>8.268133652481165e-14</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>8.268133652481165e-14</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>8.268133652481165e-14</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>8.268133652481165e-14</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>8.268133652481165e-14</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>8.268133652481165e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31044,46 +31044,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,34 +31135,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,7 +31284,7 @@
         <v>30.87735666625586</v>
       </c>
       <c r="I5" t="n">
-        <v>116.2357420115542</v>
+        <v>116.2357420115543</v>
       </c>
       <c r="J5" t="n">
         <v>255.8942561066896</v>
@@ -31363,7 +31363,7 @@
         <v>15.57979307743149</v>
       </c>
       <c r="I6" t="n">
-        <v>55.54104253307773</v>
+        <v>55.54104253307774</v>
       </c>
       <c r="J6" t="n">
         <v>152.4088658859908</v>
@@ -31396,7 +31396,7 @@
         <v>29.96386179969223</v>
       </c>
       <c r="T6" t="n">
-        <v>6.502193386993428</v>
+        <v>6.502193386993429</v>
       </c>
       <c r="U6" t="n">
         <v>0.1061293806364543</v>
@@ -31469,13 +31469,13 @@
         <v>113.2471244311391</v>
       </c>
       <c r="R7" t="n">
-        <v>60.80993132519963</v>
+        <v>60.80993132519964</v>
       </c>
       <c r="S7" t="n">
-        <v>23.56907366567078</v>
+        <v>23.56907366567079</v>
       </c>
       <c r="T7" t="n">
-        <v>5.778541795965189</v>
+        <v>5.77854179596519</v>
       </c>
       <c r="U7" t="n">
         <v>0.07376861867189614</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.472449391674558</v>
+        <v>3.472449391674554</v>
       </c>
       <c r="H8" t="n">
-        <v>35.56222233248707</v>
+        <v>35.56222233248704</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8716051725335</v>
+        <v>133.8716051725334</v>
       </c>
       <c r="J8" t="n">
-        <v>294.7198015566387</v>
+        <v>294.7198015566385</v>
       </c>
       <c r="K8" t="n">
-        <v>441.7085843062229</v>
+        <v>441.7085843062224</v>
       </c>
       <c r="L8" t="n">
-        <v>547.9785573766833</v>
+        <v>547.9785573766827</v>
       </c>
       <c r="M8" t="n">
-        <v>609.7317292458756</v>
+        <v>609.731729245875</v>
       </c>
       <c r="N8" t="n">
-        <v>619.597826079971</v>
+        <v>619.5978260799703</v>
       </c>
       <c r="O8" t="n">
-        <v>585.0686574415071</v>
+        <v>585.0686574415065</v>
       </c>
       <c r="P8" t="n">
-        <v>499.3425630845414</v>
+        <v>499.3425630845409</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9854692451962</v>
+        <v>374.9854692451958</v>
       </c>
       <c r="R8" t="n">
-        <v>218.1262490997771</v>
+        <v>218.1262490997769</v>
       </c>
       <c r="S8" t="n">
-        <v>79.12844051278407</v>
+        <v>79.12844051278398</v>
       </c>
       <c r="T8" t="n">
-        <v>15.20064721205538</v>
+        <v>15.20064721205537</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777959513339646</v>
+        <v>0.2777959513339643</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857924219328516</v>
+        <v>1.857924219328514</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94363653930435</v>
+        <v>17.94363653930434</v>
       </c>
       <c r="I9" t="n">
-        <v>63.96800491986339</v>
+        <v>63.96800491986332</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5330947743665</v>
+        <v>175.5330947743664</v>
       </c>
       <c r="K9" t="n">
-        <v>300.0140174693771</v>
+        <v>300.0140174693768</v>
       </c>
       <c r="L9" t="n">
-        <v>403.4058705169219</v>
+        <v>403.4058705169215</v>
       </c>
       <c r="M9" t="n">
-        <v>470.7556234675805</v>
+        <v>470.75562346758</v>
       </c>
       <c r="N9" t="n">
-        <v>483.2151240436916</v>
+        <v>483.215124043691</v>
       </c>
       <c r="O9" t="n">
-        <v>442.0474347627807</v>
+        <v>442.0474347627803</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7820379873901</v>
+        <v>354.7820379873897</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.162396839198</v>
+        <v>237.1623968391977</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3542774070811</v>
+        <v>115.3542774070809</v>
       </c>
       <c r="S9" t="n">
-        <v>34.5101274949836</v>
+        <v>34.51012749498356</v>
       </c>
       <c r="T9" t="n">
-        <v>7.488738410363621</v>
+        <v>7.488738410363613</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222318565347708</v>
+        <v>0.1222318565347707</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557621253765494</v>
+        <v>1.557621253765493</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84866896529686</v>
+        <v>13.84866896529685</v>
       </c>
       <c r="I10" t="n">
-        <v>46.84191915869324</v>
+        <v>46.84191915869319</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1238226412204</v>
+        <v>110.1238226412203</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9672693011183</v>
+        <v>180.9672693011181</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5757998552809</v>
+        <v>231.5757998552806</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1642116243492</v>
+        <v>244.164211624349</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3585324057689</v>
+        <v>238.3585324057687</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1626841231447</v>
+        <v>220.1626841231444</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3872105463284</v>
+        <v>188.3872105463282</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4295397130361</v>
+        <v>130.429539713036</v>
       </c>
       <c r="R10" t="n">
-        <v>70.03631564658302</v>
+        <v>70.03631564658295</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14509039516774</v>
+        <v>27.14509039516771</v>
       </c>
       <c r="T10" t="n">
-        <v>6.655290811543473</v>
+        <v>6.655290811543467</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08496115929629978</v>
+        <v>0.08496115929629969</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420753</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422583</v>
       </c>
       <c r="L15" t="n">
-        <v>545.3845241768652</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862117</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200325</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.080820443724</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,43 +32147,43 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067282</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420753</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422583</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862117</v>
       </c>
       <c r="N18" t="n">
-        <v>405.6377363145776</v>
+        <v>465.745132520032</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.080820443724</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,43 +32384,43 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>370.9642309107746</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32800,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33028,10 +33028,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33265,13 +33265,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,7 +33523,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067246</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34213,25 +34213,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34450,25 +34450,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>86.19340501175009</v>
+        <v>174.6339172880153</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469472</v>
+        <v>28.45844197068258</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>88.94484524048471</v>
+        <v>88.94484524048465</v>
       </c>
       <c r="K6" t="n">
         <v>122.6495881517968</v>
@@ -35023,13 +35023,13 @@
         <v>211.707952780637</v>
       </c>
       <c r="M6" t="n">
-        <v>266.6055873691791</v>
+        <v>266.605587369179</v>
       </c>
       <c r="N6" t="n">
-        <v>288.2160307407401</v>
+        <v>288.2160307407402</v>
       </c>
       <c r="O6" t="n">
-        <v>241.2171229812711</v>
+        <v>241.2171229812712</v>
       </c>
       <c r="P6" t="n">
         <v>174.0696575289995</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6738970299525</v>
+        <v>113.6738970299522</v>
       </c>
       <c r="K8" t="n">
-        <v>221.6187332612423</v>
+        <v>221.6187332612419</v>
       </c>
       <c r="L8" t="n">
-        <v>312.212142406696</v>
+        <v>312.2121424066955</v>
       </c>
       <c r="M8" t="n">
-        <v>379.3854960186029</v>
+        <v>379.3854960186023</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1847624833801</v>
+        <v>390.1847624833794</v>
       </c>
       <c r="O8" t="n">
-        <v>354.9704460198203</v>
+        <v>354.9704460198197</v>
       </c>
       <c r="P8" t="n">
-        <v>268.1095673292718</v>
+        <v>268.1095673292713</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6797793707467</v>
+        <v>152.6797793707463</v>
       </c>
       <c r="R8" t="n">
-        <v>2.540711285645017</v>
+        <v>2.54071128564479</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.69546810769984</v>
+        <v>48.69546810769967</v>
       </c>
       <c r="K9" t="n">
-        <v>162.1725784950181</v>
+        <v>426.6378155075964</v>
       </c>
       <c r="L9" t="n">
-        <v>431.5799021752521</v>
+        <v>264.8514907370473</v>
       </c>
       <c r="M9" t="n">
-        <v>328.6215895455622</v>
+        <v>328.6215895455617</v>
       </c>
       <c r="N9" t="n">
-        <v>351.8734119603582</v>
+        <v>351.8734119603578</v>
       </c>
       <c r="O9" t="n">
-        <v>554.4443315952306</v>
+        <v>299.4511903183358</v>
       </c>
       <c r="P9" t="n">
-        <v>220.8076305730598</v>
+        <v>220.8076305730594</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.18062275317644</v>
+        <v>254.4369384556962</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.76464252454767</v>
+        <v>16.76464252454754</v>
       </c>
       <c r="K10" t="n">
-        <v>158.6977774752354</v>
+        <v>158.6977774752353</v>
       </c>
       <c r="L10" t="n">
-        <v>259.165825115597</v>
+        <v>259.1658251155968</v>
       </c>
       <c r="M10" t="n">
-        <v>283.7480885861898</v>
+        <v>283.7480885861895</v>
       </c>
       <c r="N10" t="n">
-        <v>282.4907047849975</v>
+        <v>282.4907047849973</v>
       </c>
       <c r="O10" t="n">
-        <v>244.7478120371843</v>
+        <v>244.7478120371841</v>
       </c>
       <c r="P10" t="n">
-        <v>185.6657698112219</v>
+        <v>185.6657698112217</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.26749646134168</v>
+        <v>44.26749646134157</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754086</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678993</v>
       </c>
       <c r="L15" t="n">
-        <v>406.830144396991</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641933</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>334.4034204366992</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992795</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295327</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899072</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060452</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236322288</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754086</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678993</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641933</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2960242312443</v>
+        <v>334.4034204366987</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992795</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295327</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899072</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060452</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>228.3679864663302</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36448,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318714</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37861,25 +37861,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2937042.289008538</v>
+        <v>2938802.819311325</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>145.1986582043253</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>140.7094048023547</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368145</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -749,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>73.41885874331113</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550655</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714234</v>
+        <v>26.91122581714242</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>84.14553079461984</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.4337583055308</v>
+        <v>23.43375830553089</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845758</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>112.9689816614025</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>34.21493037210143</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>78.33736320995612</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>47.14398562873566</v>
+        <v>12.28773869504416</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>94.24014755885166</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -983,19 +983,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>41.9330141472613</v>
       </c>
       <c r="I6" t="n">
-        <v>33.85559031833734</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1028,13 +1028,13 @@
         <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
-        <v>77.99112952828368</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>75.55700990655286</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>20.29684812141807</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,10 +1144,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>318.9989010714729</v>
+        <v>268.9991901478093</v>
       </c>
       <c r="G8" t="n">
-        <v>11.83028812346049</v>
+        <v>11.83028812346051</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.4855929438821</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.29180769719218</v>
       </c>
       <c r="I9" t="n">
-        <v>25.42862793155176</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>22.4115012715847</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.675990284458</v>
+        <v>10.73871884650834</v>
       </c>
       <c r="U9" t="n">
         <v>225.8191502244401</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4333581046933</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>103.8037694666231</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>107.2570757305867</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>196.8715076418046</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.2902986167381</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>95.0649383246937</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174105</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856558</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012174</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,10 +1821,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>177.9413471369449</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892427987</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012174</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417106</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428169</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2955,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>110.0177171766856</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>261.9345988277395</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>60.64713141731118</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>603.4370373477802</v>
+        <v>738.6222485201457</v>
       </c>
       <c r="C2" t="n">
-        <v>414.0172523312953</v>
+        <v>549.2024635036612</v>
       </c>
       <c r="D2" t="n">
-        <v>224.5974673148103</v>
+        <v>359.7826784871767</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832529</v>
+        <v>170.3628934706922</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912182</v>
+        <v>28.23218154912178</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058973</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985576</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020272</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652805</v>
+        <v>738.6222485201457</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652805</v>
+        <v>738.6222485201457</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652805</v>
+        <v>738.6222485201457</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652805</v>
+        <v>738.6222485201457</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652805</v>
+        <v>738.6222485201457</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652805</v>
+        <v>738.6222485201457</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652805</v>
+        <v>738.6222485201457</v>
       </c>
       <c r="Y2" t="n">
-        <v>750.1023486652805</v>
+        <v>738.6222485201457</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>722.9192922843287</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4662630032017</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="D3" t="n">
-        <v>399.5318533419504</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="E3" t="n">
-        <v>240.2943983364949</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2943983364949</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G3" t="n">
-        <v>166.133934959413</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024199</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772652</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140239</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546594</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476339</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017069</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843287</v>
+        <v>722.9192922843266</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843287</v>
+        <v>722.9192922843266</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843287</v>
+        <v>722.9192922843266</v>
       </c>
       <c r="U3" t="n">
-        <v>722.9192922843287</v>
+        <v>637.9238066331955</v>
       </c>
       <c r="V3" t="n">
-        <v>722.9192922843287</v>
+        <v>637.9238066331955</v>
       </c>
       <c r="W3" t="n">
-        <v>722.9192922843287</v>
+        <v>637.9238066331955</v>
       </c>
       <c r="X3" t="n">
-        <v>722.9192922843287</v>
+        <v>637.9238066331955</v>
       </c>
       <c r="Y3" t="n">
-        <v>722.9192922843287</v>
+        <v>637.9238066331955</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>632.6154154983631</v>
+        <v>336.7022429029141</v>
       </c>
       <c r="C4" t="n">
-        <v>463.6792325704562</v>
+        <v>336.7022429029141</v>
       </c>
       <c r="D4" t="n">
-        <v>313.5625931581204</v>
+        <v>186.5856034905784</v>
       </c>
       <c r="E4" t="n">
-        <v>165.6494995757273</v>
+        <v>38.67250990818525</v>
       </c>
       <c r="F4" t="n">
-        <v>165.6494995757273</v>
+        <v>38.67250990818525</v>
       </c>
       <c r="G4" t="n">
-        <v>165.6494995757273</v>
+        <v>38.67250990818525</v>
       </c>
       <c r="H4" t="n">
-        <v>165.6494995757273</v>
+        <v>38.67250990818525</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818521</v>
+        <v>38.67250990818525</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330561</v>
+        <v>43.17590452428067</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884407</v>
+        <v>216.0634826394156</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830977</v>
+        <v>401.713813934072</v>
       </c>
       <c r="N4" t="n">
-        <v>559.1902876777546</v>
+        <v>587.3641452287285</v>
       </c>
       <c r="O4" t="n">
-        <v>721.9284911143047</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846282</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846282</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846282</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T4" t="n">
-        <v>632.6154154983631</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="U4" t="n">
-        <v>632.6154154983631</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="V4" t="n">
-        <v>632.6154154983631</v>
+        <v>560.682563648794</v>
       </c>
       <c r="W4" t="n">
-        <v>632.6154154983631</v>
+        <v>371.2627786323095</v>
       </c>
       <c r="X4" t="n">
-        <v>632.6154154983631</v>
+        <v>336.7022429029141</v>
       </c>
       <c r="Y4" t="n">
-        <v>632.6154154983631</v>
+        <v>336.7022429029141</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>183.4869675567997</v>
+        <v>536.2556228269139</v>
       </c>
       <c r="C5" t="n">
-        <v>183.4869675567997</v>
+        <v>536.2556228269139</v>
       </c>
       <c r="D5" t="n">
-        <v>183.4869675567997</v>
+        <v>536.2556228269139</v>
       </c>
       <c r="E5" t="n">
-        <v>183.4869675567997</v>
+        <v>457.1269731198875</v>
       </c>
       <c r="F5" t="n">
-        <v>176.5414668075962</v>
+        <v>46.14106833027991</v>
       </c>
       <c r="G5" t="n">
-        <v>128.9212793038228</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H5" t="n">
-        <v>128.9212793038228</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I5" t="n">
         <v>33.72921106255854</v>
@@ -4606,13 +4606,13 @@
         <v>1686.460553127927</v>
       </c>
       <c r="W5" t="n">
-        <v>1333.691897857813</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="X5" t="n">
-        <v>960.2261395967332</v>
+        <v>1312.994794866847</v>
       </c>
       <c r="Y5" t="n">
-        <v>570.0868076209215</v>
+        <v>922.8554628910356</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>391.3142159830553</v>
+        <v>705.2452429302359</v>
       </c>
       <c r="C6" t="n">
-        <v>216.8611867019283</v>
+        <v>530.7922136491089</v>
       </c>
       <c r="D6" t="n">
-        <v>67.92677704067707</v>
+        <v>381.8578039878577</v>
       </c>
       <c r="E6" t="n">
-        <v>67.92677704067707</v>
+        <v>222.6203489824022</v>
       </c>
       <c r="F6" t="n">
-        <v>67.92677704067707</v>
+        <v>76.08579100928714</v>
       </c>
       <c r="G6" t="n">
-        <v>67.92677704067707</v>
+        <v>76.08579100928714</v>
       </c>
       <c r="H6" t="n">
-        <v>67.92677704067707</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I6" t="n">
         <v>33.72921106255854</v>
@@ -4676,22 +4676,22 @@
         <v>1543.309735648992</v>
       </c>
       <c r="T6" t="n">
-        <v>1464.530816933554</v>
+        <v>1543.309735648992</v>
       </c>
       <c r="U6" t="n">
-        <v>1464.530816933554</v>
+        <v>1543.309735648992</v>
       </c>
       <c r="V6" t="n">
-        <v>1229.378708701812</v>
+        <v>1543.309735648992</v>
       </c>
       <c r="W6" t="n">
-        <v>975.14135197361</v>
+        <v>1289.072378920791</v>
       </c>
       <c r="X6" t="n">
-        <v>767.2898517680771</v>
+        <v>1081.220878715258</v>
       </c>
       <c r="Y6" t="n">
-        <v>559.5295530031233</v>
+        <v>873.460579950304</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>352.7820334028012</v>
+        <v>545.0410095705174</v>
       </c>
       <c r="C7" t="n">
-        <v>183.8458504748943</v>
+        <v>376.1048266426105</v>
       </c>
       <c r="D7" t="n">
-        <v>33.72921106255854</v>
+        <v>225.9881872302748</v>
       </c>
       <c r="E7" t="n">
-        <v>33.72921106255854</v>
+        <v>225.9881872302748</v>
       </c>
       <c r="F7" t="n">
-        <v>33.72921106255854</v>
+        <v>225.9881872302748</v>
       </c>
       <c r="G7" t="n">
-        <v>33.72921106255854</v>
+        <v>225.9881872302748</v>
       </c>
       <c r="H7" t="n">
-        <v>33.72921106255854</v>
+        <v>149.6679752034537</v>
       </c>
       <c r="I7" t="n">
         <v>33.72921106255854</v>
@@ -4749,28 +4749,28 @@
         <v>1293.13166510086</v>
       </c>
       <c r="R7" t="n">
-        <v>1293.13166510086</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="S7" t="n">
-        <v>1293.13166510086</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="T7" t="n">
-        <v>1293.13166510086</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="U7" t="n">
-        <v>1293.13166510086</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="V7" t="n">
-        <v>1272.629798311549</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="W7" t="n">
-        <v>983.2126282745884</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="X7" t="n">
-        <v>755.223077376571</v>
+        <v>947.4820535442873</v>
       </c>
       <c r="Y7" t="n">
-        <v>534.4304982330409</v>
+        <v>726.6894744007571</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.542912849725</v>
+        <v>1441.038154340974</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.580395909313</v>
+        <v>1072.075637400562</v>
       </c>
       <c r="D8" t="n">
-        <v>764.314697302563</v>
+        <v>713.8099387938116</v>
       </c>
       <c r="E8" t="n">
-        <v>378.5264447043187</v>
+        <v>328.0216861955674</v>
       </c>
       <c r="F8" t="n">
-        <v>56.30533251091181</v>
+        <v>56.30533251091158</v>
       </c>
       <c r="G8" t="n">
-        <v>44.35554652761838</v>
+        <v>44.35554652761815</v>
       </c>
       <c r="H8" t="n">
-        <v>44.35554652761838</v>
+        <v>44.35554652761815</v>
       </c>
       <c r="I8" t="n">
-        <v>44.35554652761838</v>
+        <v>44.35554652761815</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8927045872715</v>
+        <v>156.8927045872701</v>
       </c>
       <c r="K8" t="n">
-        <v>376.295250515901</v>
+        <v>376.2952505158983</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985294</v>
+        <v>685.3852714985251</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.976912556946</v>
+        <v>1060.97691255694</v>
       </c>
       <c r="N8" t="n">
-        <v>1447.259827415491</v>
+        <v>1447.259827415483</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.680568975113</v>
+        <v>1798.680568975104</v>
       </c>
       <c r="P8" t="n">
-        <v>2064.109040631091</v>
+        <v>2064.109040631081</v>
       </c>
       <c r="Q8" t="n">
-        <v>2215.26202220813</v>
+        <v>2215.26202220812</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.777326380919</v>
+        <v>2217.777326380907</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.777326380919</v>
+        <v>2217.777326380907</v>
       </c>
       <c r="T8" t="n">
-        <v>2217.777326380919</v>
+        <v>2217.777326380907</v>
       </c>
       <c r="U8" t="n">
-        <v>2217.777326380919</v>
+        <v>2217.777326380907</v>
       </c>
       <c r="V8" t="n">
-        <v>2217.777326380919</v>
+        <v>2217.777326380907</v>
       </c>
       <c r="W8" t="n">
-        <v>1865.008671110805</v>
+        <v>2217.777326380907</v>
       </c>
       <c r="X8" t="n">
-        <v>1491.542912849725</v>
+        <v>2217.777326380907</v>
       </c>
       <c r="Y8" t="n">
-        <v>1491.542912849725</v>
+        <v>1827.637994405095</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>699.2004812077104</v>
+        <v>905.6133829345007</v>
       </c>
       <c r="C9" t="n">
-        <v>524.7474519265834</v>
+        <v>731.1603536533737</v>
       </c>
       <c r="D9" t="n">
-        <v>375.8130422653321</v>
+        <v>582.2259439921224</v>
       </c>
       <c r="E9" t="n">
-        <v>216.5755872598766</v>
+        <v>422.9884889866669</v>
       </c>
       <c r="F9" t="n">
-        <v>70.04102928676157</v>
+        <v>276.4539310135518</v>
       </c>
       <c r="G9" t="n">
-        <v>70.04102928676157</v>
+        <v>139.5997967268022</v>
       </c>
       <c r="H9" t="n">
-        <v>70.04102928676157</v>
+        <v>44.35554652761815</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35554652761838</v>
+        <v>44.35554652761815</v>
       </c>
       <c r="J9" t="n">
-        <v>92.56405995424106</v>
+        <v>92.56405995424031</v>
       </c>
       <c r="K9" t="n">
-        <v>514.9354973067615</v>
+        <v>355.3411088987131</v>
       </c>
       <c r="L9" t="n">
-        <v>777.1384731364383</v>
+        <v>617.5440847283888</v>
       </c>
       <c r="M9" t="n">
-        <v>1102.473846786544</v>
+        <v>942.8794583784936</v>
       </c>
       <c r="N9" t="n">
-        <v>1450.828524627299</v>
+        <v>1291.234136219246</v>
       </c>
       <c r="O9" t="n">
-        <v>1747.285203042451</v>
+        <v>1587.690814634398</v>
       </c>
       <c r="P9" t="n">
-        <v>1965.88475730978</v>
+        <v>2121.568509855264</v>
       </c>
       <c r="Q9" t="n">
-        <v>2217.777326380919</v>
+        <v>2217.777326380907</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.777326380919</v>
+        <v>2217.777326380907</v>
       </c>
       <c r="S9" t="n">
-        <v>2195.139446308611</v>
+        <v>2217.777326380907</v>
       </c>
       <c r="T9" t="n">
-        <v>2000.517233900068</v>
+        <v>2206.930135626858</v>
       </c>
       <c r="U9" t="n">
-        <v>1772.417082158209</v>
+        <v>1978.829983885</v>
       </c>
       <c r="V9" t="n">
-        <v>1537.264973926467</v>
+        <v>1743.677875653257</v>
       </c>
       <c r="W9" t="n">
-        <v>1283.027617198265</v>
+        <v>1489.440518925055</v>
       </c>
       <c r="X9" t="n">
-        <v>1075.176116992732</v>
+        <v>1281.589018719523</v>
       </c>
       <c r="Y9" t="n">
-        <v>867.4158182277783</v>
+        <v>1073.828719954569</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>489.2752270202576</v>
+        <v>464.2122895521107</v>
       </c>
       <c r="C10" t="n">
-        <v>489.2752270202576</v>
+        <v>464.2122895521107</v>
       </c>
       <c r="D10" t="n">
-        <v>339.1585876079218</v>
+        <v>464.2122895521107</v>
       </c>
       <c r="E10" t="n">
-        <v>191.2454940255287</v>
+        <v>464.2122895521107</v>
       </c>
       <c r="F10" t="n">
-        <v>44.35554652761838</v>
+        <v>317.3223420542004</v>
       </c>
       <c r="G10" t="n">
-        <v>44.35554652761838</v>
+        <v>149.2078389181465</v>
       </c>
       <c r="H10" t="n">
-        <v>44.35554652761838</v>
+        <v>44.35554652761815</v>
       </c>
       <c r="I10" t="n">
-        <v>44.35554652761838</v>
+        <v>44.35554652761815</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262692045</v>
+        <v>60.95254262691991</v>
       </c>
       <c r="K10" t="n">
-        <v>218.0633423274033</v>
+        <v>218.0633423274023</v>
       </c>
       <c r="L10" t="n">
-        <v>474.6375091918442</v>
+        <v>474.6375091918425</v>
       </c>
       <c r="M10" t="n">
-        <v>755.5481168921717</v>
+        <v>755.5481168921694</v>
       </c>
       <c r="N10" t="n">
-        <v>1035.213914629319</v>
+        <v>1035.213914629316</v>
       </c>
       <c r="O10" t="n">
-        <v>1277.514248546131</v>
+        <v>1277.514248546128</v>
       </c>
       <c r="P10" t="n">
-        <v>1461.323360659241</v>
+        <v>1461.323360659237</v>
       </c>
       <c r="Q10" t="n">
-        <v>1505.148182155969</v>
+        <v>1505.148182155965</v>
       </c>
       <c r="R10" t="n">
-        <v>1505.148182155969</v>
+        <v>1396.807701620018</v>
       </c>
       <c r="S10" t="n">
-        <v>1505.148182155969</v>
+        <v>1197.947592890923</v>
       </c>
       <c r="T10" t="n">
-        <v>1505.148182155969</v>
+        <v>974.4220387326015</v>
       </c>
       <c r="U10" t="n">
-        <v>1505.148182155969</v>
+        <v>974.4220387326015</v>
       </c>
       <c r="V10" t="n">
-        <v>1409.122991929005</v>
+        <v>974.4220387326015</v>
       </c>
       <c r="W10" t="n">
-        <v>1119.705821892045</v>
+        <v>685.0048686956409</v>
       </c>
       <c r="X10" t="n">
-        <v>891.7162709940275</v>
+        <v>685.0048686956409</v>
       </c>
       <c r="Y10" t="n">
-        <v>670.9236918504973</v>
+        <v>464.2122895521107</v>
       </c>
     </row>
     <row r="11">
@@ -5035,13 +5035,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
@@ -5050,19 +5050,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5266,55 +5266,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852888</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756264</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468466</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962605</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589156</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510506</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1977.461080510506</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1688.043910473546</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1460.054359575528</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,40 +5503,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638193094</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111762</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075851</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332391</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014782</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5548,7 +5548,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756264</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468468</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962605</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400694</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121625</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121625</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121625</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121625</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270425</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854704</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648817</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138393</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703091</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,25 +5734,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5764,7 +5764,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5989,13 +5989,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
         <v>484.8112968429803</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6220,58 +6220,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6378,10 +6378,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6457,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6484,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6603,22 +6603,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6694,58 +6694,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,40 +6919,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7374,10 +7374,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7405,46 +7405,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7648,22 +7648,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>42.56275186471051</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457085</v>
+        <v>171.4142040457082</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711118</v>
+        <v>163.8604018711115</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>46.5660510377764</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>103.2587840751576</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>157.2563157025199</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.32522655688301</v>
+        <v>30.32522655688332</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>40.64330621514989</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194402</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856558</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24843,19 +24843,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>38.5977558415268</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>19.50758019582712</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.58839950885152</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>104.8770068749577</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>739850.7069512765</v>
+        <v>739850.7069512764</v>
       </c>
     </row>
     <row r="7">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>739850.7069512765</v>
+        <v>739850.7069512764</v>
       </c>
     </row>
     <row r="16">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846415</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="F2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="H2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="J2" t="n">
         <v>686074.6097365055</v>
@@ -26346,16 +26346,16 @@
         <v>686074.6097365055</v>
       </c>
       <c r="M2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="N2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365055</v>
       </c>
     </row>
     <row r="3">
@@ -26365,25 +26365,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208449</v>
       </c>
       <c r="C3" t="n">
-        <v>259123.8056778326</v>
+        <v>259123.8056778333</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.7919296915</v>
+        <v>138712.7919296886</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.7921745742</v>
+        <v>589678.7921745765</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.28238008105184e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.869591415015748e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6.964064596104436e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26395,16 +26395,16 @@
         <v>60247.15959153567</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.8733648432</v>
+        <v>33617.87336484253</v>
       </c>
       <c r="M3" t="n">
-        <v>154073.8510167272</v>
+        <v>154073.8510167278</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.18870809476357e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278169.1766632063</v>
+        <v>278169.1766632065</v>
       </c>
       <c r="C4" t="n">
         <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>170385.5244296186</v>
+        <v>170385.5244296194</v>
       </c>
       <c r="E4" t="n">
+        <v>14216.75207685513</v>
+      </c>
+      <c r="F4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="F4" t="n">
-        <v>14216.75207685516</v>
-      </c>
       <c r="G4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685505</v>
@@ -26441,13 +26441,13 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
+        <v>14216.75207685501</v>
+      </c>
+      <c r="K4" t="n">
         <v>14216.75207685509</v>
       </c>
-      <c r="K4" t="n">
-        <v>14216.75207685501</v>
-      </c>
       <c r="L4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
         <v>14216.75207685505</v>
@@ -26456,7 +26456,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="O4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="P4" t="n">
         <v>14216.75207685505</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="C5" t="n">
         <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>86168.04029969317</v>
+        <v>86168.04029969295</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-228626.3752110247</v>
+        <v>-228626.3752110243</v>
       </c>
       <c r="C6" t="n">
-        <v>153896.4010120588</v>
+        <v>153896.4010120582</v>
       </c>
       <c r="D6" t="n">
-        <v>302619.1477256375</v>
+        <v>302619.1477256407</v>
       </c>
       <c r="E6" t="n">
-        <v>-19290.84359318776</v>
+        <v>-18978.20226426904</v>
       </c>
       <c r="F6" t="n">
-        <v>570387.9485813872</v>
+        <v>570700.5899103077</v>
       </c>
       <c r="G6" t="n">
-        <v>570387.948581386</v>
+        <v>570700.5899103078</v>
       </c>
       <c r="H6" t="n">
-        <v>570387.9485813857</v>
+        <v>570700.5899103078</v>
       </c>
       <c r="I6" t="n">
-        <v>570387.9485813866</v>
+        <v>570700.5899103078</v>
       </c>
       <c r="J6" t="n">
-        <v>521323.0038528419</v>
+        <v>521635.6451817631</v>
       </c>
       <c r="K6" t="n">
-        <v>510140.7889898508</v>
+        <v>510453.4303187722</v>
       </c>
       <c r="L6" t="n">
-        <v>536770.0752165432</v>
+        <v>537082.7165454653</v>
       </c>
       <c r="M6" t="n">
-        <v>416314.0975646594</v>
+        <v>416626.7388935798</v>
       </c>
       <c r="N6" t="n">
-        <v>570387.9485813866</v>
+        <v>570700.5899103079</v>
       </c>
       <c r="O6" t="n">
-        <v>570387.9485813864</v>
+        <v>570700.5899103078</v>
       </c>
       <c r="P6" t="n">
-        <v>570387.9485813865</v>
+        <v>570700.5899103079</v>
       </c>
     </row>
   </sheetData>
@@ -26694,25 +26694,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>8.902365434864647e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.902365434864647e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>8.902365434864647e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.902365434864647e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.218023548783847e-14</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>863.771786179046</v>
+        <v>863.7717861790436</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952298</v>
+        <v>554.4443315952268</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26916,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>8.902365434864647e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>201.5110155847052</v>
+        <v>201.5110155847058</v>
       </c>
       <c r="D3" t="n">
-        <v>113.790829681436</v>
+        <v>113.7908296814336</v>
       </c>
       <c r="E3" t="n">
-        <v>504.203714162628</v>
+        <v>504.2037141626299</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.371782223077559e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>234.0895511156617</v>
+        <v>234.0895511156621</v>
       </c>
       <c r="D4" t="n">
-        <v>132.829193313248</v>
+        <v>132.829193313245</v>
       </c>
       <c r="E4" t="n">
-        <v>618.2639565044186</v>
+        <v>618.2639565044213</v>
       </c>
       <c r="F4" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
         <v>234.0895511156619</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132478</v>
+        <v>132.8291933132452</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044188</v>
+        <v>618.2639565044213</v>
       </c>
       <c r="N4" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27153,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>8.902365434864647e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156617</v>
+        <v>234.0895511156621</v>
       </c>
       <c r="L4" t="n">
-        <v>132.829193313248</v>
+        <v>132.829193313245</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044186</v>
+        <v>618.2639565044213</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>237.5351834591553</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046874</v>
+        <v>177.7473046046879</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543628</v>
+        <v>167.1574544543633</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059417</v>
+        <v>194.4047829059421</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>266.1666409393567</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368128</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27469,16 +27469,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>62.7449306224642</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.7788117555066</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,10 +27511,10 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>141.7182376154711</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27590,19 +27590,19 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>110.7506918286976</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750836</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027136</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>191.4947250169357</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>303.5930068623056</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>365.1437530663085</v>
       </c>
       <c r="H5" t="n">
         <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.24014755885166</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27703,19 +27703,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
-        <v>96.65565115906497</v>
+        <v>54.72263701180367</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.85559031833734</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27748,13 +27748,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>115.6714057795445</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
         <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
-        <v>150.2028876639205</v>
+        <v>74.64587775736764</v>
       </c>
       <c r="I7" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.4475243713015</v>
@@ -27833,10 +27833,10 @@
         <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
-        <v>231.8407952024099</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>87.87714467023858</v>
+        <v>137.8768555939022</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9125797832801</v>
+        <v>303.9125797832802</v>
       </c>
       <c r="I8" t="n">
-        <v>76.60428439787253</v>
+        <v>76.6042843978729</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.8916290734614</v>
+        <v>129.8916290734616</v>
       </c>
       <c r="T8" t="n">
         <v>207.895202352076</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4855929438821</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29180769719213</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>25.42862793155193</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,10 +27982,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>114.7615423372695</v>
+        <v>137.1730436088544</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>181.9372714379497</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4333581046933</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.3785035421427</v>
+        <v>44.57473407551967</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6085557685651</v>
+        <v>108.6085557685652</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2570757305865</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8715076418046</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.290298616738</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2340681971946</v>
       </c>
       <c r="V10" t="n">
-        <v>157.0727049991343</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28089,22 +28089,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28140,16 +28140,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.221555270729306e-12</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28389,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.490872901574189e-12</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>8.038590482916834e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29514,7 +29514,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.472449391674554</v>
+        <v>3.472449391674544</v>
       </c>
       <c r="H8" t="n">
-        <v>35.56222233248704</v>
+        <v>35.56222233248694</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8716051725334</v>
+        <v>133.871605172533</v>
       </c>
       <c r="J8" t="n">
-        <v>294.7198015566385</v>
+        <v>294.7198015566377</v>
       </c>
       <c r="K8" t="n">
-        <v>441.7085843062224</v>
+        <v>441.7085843062212</v>
       </c>
       <c r="L8" t="n">
-        <v>547.9785573766827</v>
+        <v>547.9785573766811</v>
       </c>
       <c r="M8" t="n">
-        <v>609.731729245875</v>
+        <v>609.7317292458733</v>
       </c>
       <c r="N8" t="n">
-        <v>619.5978260799703</v>
+        <v>619.5978260799686</v>
       </c>
       <c r="O8" t="n">
-        <v>585.0686574415065</v>
+        <v>585.0686574415049</v>
       </c>
       <c r="P8" t="n">
-        <v>499.3425630845409</v>
+        <v>499.3425630845394</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9854692451958</v>
+        <v>374.9854692451947</v>
       </c>
       <c r="R8" t="n">
-        <v>218.1262490997769</v>
+        <v>218.1262490997763</v>
       </c>
       <c r="S8" t="n">
-        <v>79.12844051278398</v>
+        <v>79.12844051278377</v>
       </c>
       <c r="T8" t="n">
-        <v>15.20064721205537</v>
+        <v>15.20064721205533</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777959513339643</v>
+        <v>0.2777959513339635</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857924219328514</v>
+        <v>1.857924219328509</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94363653930434</v>
+        <v>17.94363653930429</v>
       </c>
       <c r="I9" t="n">
-        <v>63.96800491986332</v>
+        <v>63.96800491986315</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5330947743664</v>
+        <v>175.5330947743658</v>
       </c>
       <c r="K9" t="n">
-        <v>300.0140174693768</v>
+        <v>300.014017469376</v>
       </c>
       <c r="L9" t="n">
-        <v>403.4058705169215</v>
+        <v>403.4058705169203</v>
       </c>
       <c r="M9" t="n">
-        <v>470.75562346758</v>
+        <v>470.7556234675787</v>
       </c>
       <c r="N9" t="n">
-        <v>483.215124043691</v>
+        <v>483.2151240436897</v>
       </c>
       <c r="O9" t="n">
-        <v>442.0474347627803</v>
+        <v>442.0474347627791</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7820379873897</v>
+        <v>354.7820379873887</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1623968391977</v>
+        <v>237.162396839197</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3542774070809</v>
+        <v>115.3542774070806</v>
       </c>
       <c r="S9" t="n">
-        <v>34.51012749498356</v>
+        <v>34.51012749498346</v>
       </c>
       <c r="T9" t="n">
-        <v>7.488738410363613</v>
+        <v>7.488738410363593</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222318565347707</v>
+        <v>0.1222318565347704</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557621253765493</v>
+        <v>1.557621253765488</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84866896529685</v>
+        <v>13.84866896529681</v>
       </c>
       <c r="I10" t="n">
-        <v>46.84191915869319</v>
+        <v>46.84191915869306</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1238226412203</v>
+        <v>110.12382264122</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9672693011181</v>
+        <v>180.9672693011176</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5757998552806</v>
+        <v>231.57579985528</v>
       </c>
       <c r="M10" t="n">
-        <v>244.164211624349</v>
+        <v>244.1642116243483</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3585324057687</v>
+        <v>238.358532405768</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1626841231444</v>
+        <v>220.1626841231438</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3872105463282</v>
+        <v>188.3872105463277</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.429539713036</v>
+        <v>130.4295397130356</v>
       </c>
       <c r="R10" t="n">
-        <v>70.03631564658295</v>
+        <v>70.03631564658275</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14509039516771</v>
+        <v>27.14509039516764</v>
       </c>
       <c r="T10" t="n">
-        <v>6.655290811543467</v>
+        <v>6.655290811543448</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08496115929629969</v>
+        <v>0.08496115929629947</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>338.1920576279227</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420753</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422583</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862117</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200325</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.080820443724</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,43 +32147,43 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121569</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067282</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420753</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422583</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862117</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>465.745132520032</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.080820443724</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,43 +32384,43 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121569</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,13 +33271,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33675,7 +33675,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>28.45844197068192</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880153</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="O4" t="n">
-        <v>164.382023673283</v>
+        <v>164.3820236732829</v>
       </c>
       <c r="P4" t="n">
-        <v>28.45844197068258</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6738970299522</v>
+        <v>113.6738970299514</v>
       </c>
       <c r="K8" t="n">
-        <v>221.6187332612419</v>
+        <v>221.6187332612407</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2121424066955</v>
+        <v>312.2121424066939</v>
       </c>
       <c r="M8" t="n">
-        <v>379.3854960186023</v>
+        <v>379.3854960186006</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1847624833794</v>
+        <v>390.1847624833777</v>
       </c>
       <c r="O8" t="n">
-        <v>354.9704460198197</v>
+        <v>354.9704460198182</v>
       </c>
       <c r="P8" t="n">
-        <v>268.1095673292713</v>
+        <v>268.1095673292699</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6797793707463</v>
+        <v>152.6797793707453</v>
       </c>
       <c r="R8" t="n">
-        <v>2.54071128564479</v>
+        <v>2.540711285644164</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.69546810769967</v>
+        <v>48.69546810769916</v>
       </c>
       <c r="K9" t="n">
-        <v>426.6378155075964</v>
+        <v>265.4313625701746</v>
       </c>
       <c r="L9" t="n">
-        <v>264.8514907370473</v>
+        <v>264.8514907370462</v>
       </c>
       <c r="M9" t="n">
-        <v>328.6215895455617</v>
+        <v>328.6215895455604</v>
       </c>
       <c r="N9" t="n">
-        <v>351.8734119603578</v>
+        <v>351.8734119603564</v>
       </c>
       <c r="O9" t="n">
-        <v>299.4511903183358</v>
+        <v>299.4511903183346</v>
       </c>
       <c r="P9" t="n">
-        <v>220.8076305730594</v>
+        <v>539.2703992129957</v>
       </c>
       <c r="Q9" t="n">
-        <v>254.4369384556962</v>
+        <v>97.18062275317553</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.76464252454754</v>
+        <v>16.76464252454724</v>
       </c>
       <c r="K10" t="n">
-        <v>158.6977774752353</v>
+        <v>158.6977774752347</v>
       </c>
       <c r="L10" t="n">
-        <v>259.1658251155968</v>
+        <v>259.1658251155961</v>
       </c>
       <c r="M10" t="n">
-        <v>283.7480885861895</v>
+        <v>283.7480885861889</v>
       </c>
       <c r="N10" t="n">
-        <v>282.4907047849973</v>
+        <v>282.4907047849966</v>
       </c>
       <c r="O10" t="n">
-        <v>244.7478120371841</v>
+        <v>244.7478120371835</v>
       </c>
       <c r="P10" t="n">
-        <v>185.6657698112217</v>
+        <v>185.6657698112212</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.26749646134157</v>
+        <v>44.2674964613412</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059044</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663299</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243155</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754086</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678993</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641933</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366992</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992795</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236322288</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243155</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754086</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678993</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641933</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366987</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992795</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,13 +36919,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37323,7 +37323,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
